--- a/word_features/季/ENG,2021-1~2021-4,主题_词矩阵.xlsx
+++ b/word_features/季/ENG,2021-1~2021-4,主题_词矩阵.xlsx
@@ -14,222 +14,537 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
-  <si>
-    <t>acid</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+  <si>
+    <t>acceler</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>achiev</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>activ</t>
   </si>
   <si>
     <t>address</t>
   </si>
   <si>
-    <t>adenovirus</t>
-  </si>
-  <si>
-    <t>administration</t>
-  </si>
-  <si>
-    <t>africa</t>
-  </si>
-  <si>
-    <t>african</t>
-  </si>
-  <si>
-    <t>agencies</t>
-  </si>
-  <si>
-    <t>ahead</t>
+    <t>advanc</t>
+  </si>
+  <si>
+    <t>advantag</t>
+  </si>
+  <si>
+    <t>affair</t>
+  </si>
+  <si>
+    <t>afford</t>
+  </si>
+  <si>
+    <t>agenda</t>
+  </si>
+  <si>
+    <t>agreement</t>
+  </si>
+  <si>
+    <t>agricultur</t>
+  </si>
+  <si>
+    <t>aim</t>
+  </si>
+  <si>
+    <t>align</t>
+  </si>
+  <si>
+    <t>alway</t>
+  </si>
+  <si>
+    <t>anniversari</t>
+  </si>
+  <si>
+    <t>antipandem</t>
   </si>
   <si>
     <t>app</t>
   </si>
   <si>
-    <t>approval</t>
-  </si>
-  <si>
-    <t>approved</t>
-  </si>
-  <si>
-    <t>april</t>
-  </si>
-  <si>
-    <t>arizona</t>
-  </si>
-  <si>
-    <t>asymptomatic</t>
-  </si>
-  <si>
-    <t>beds</t>
-  </si>
-  <si>
-    <t>beneficial</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>biden</t>
-  </si>
-  <si>
-    <t>bidens</t>
-  </si>
-  <si>
-    <t>biggest</t>
+    <t>appreci</t>
+  </si>
+  <si>
+    <t>approach</t>
+  </si>
+  <si>
+    <t>articl</t>
+  </si>
+  <si>
+    <t>asia</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>aspir</t>
+  </si>
+  <si>
+    <t>assist</t>
+  </si>
+  <si>
+    <t>attach</t>
+  </si>
+  <si>
+    <t>attent</t>
+  </si>
+  <si>
+    <t>attract</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>becam</t>
+  </si>
+  <si>
+    <t>becom</t>
+  </si>
+  <si>
+    <t>belt</t>
+  </si>
+  <si>
+    <t>benefici</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>besid</t>
+  </si>
+  <si>
+    <t>bilater</t>
   </si>
   <si>
     <t>billion</t>
   </si>
   <si>
-    <t>bloomberg</t>
-  </si>
-  <si>
-    <t>britain</t>
-  </si>
-  <si>
-    <t>cansino</t>
-  </si>
-  <si>
-    <t>cdc</t>
-  </si>
-  <si>
-    <t>challenges</t>
-  </si>
-  <si>
-    <t>chen</t>
-  </si>
-  <si>
-    <t>chief</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>built</t>
+  </si>
+  <si>
+    <t>busi</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>cdata</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>centuri</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>challeng</t>
+  </si>
+  <si>
+    <t>chang</t>
   </si>
   <si>
     <t>china</t>
   </si>
   <si>
-    <t>chinas</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>clinical</t>
-  </si>
-  <si>
-    <t>clots</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>comosimple</t>
-  </si>
-  <si>
-    <t>conditional</t>
-  </si>
-  <si>
-    <t>continue</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>cooperation</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>countrys</t>
-  </si>
-  <si>
-    <t>covax</t>
-  </si>
-  <si>
-    <t>cultivation</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>dean</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>developing</t>
-  </si>
-  <si>
-    <t>development</t>
+    <t>chinaafrica</t>
+  </si>
+  <si>
+    <t>chinadaili</t>
+  </si>
+  <si>
+    <t>chinadailyandroidschemeencodeandroid</t>
+  </si>
+  <si>
+    <t>chinadailyiosschemeencodeio</t>
+  </si>
+  <si>
+    <t>chinadailyuk</t>
+  </si>
+  <si>
+    <t>chinaeu</t>
+  </si>
+  <si>
+    <t>chinau</t>
+  </si>
+  <si>
+    <t>chines</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>climat</t>
+  </si>
+  <si>
+    <t>closer</t>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>cnmobiledaili</t>
+  </si>
+  <si>
+    <t>collabor</t>
+  </si>
+  <si>
+    <t>commentchinadaili</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>commun</t>
+  </si>
+  <si>
+    <t>communist</t>
+  </si>
+  <si>
+    <t>comosimpl</t>
+  </si>
+  <si>
+    <t>competit</t>
+  </si>
+  <si>
+    <t>comprehens</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>conflict</t>
+  </si>
+  <si>
+    <t>confront</t>
+  </si>
+  <si>
+    <t>consensu</t>
+  </si>
+  <si>
+    <t>consolid</t>
+  </si>
+  <si>
+    <t>construct</t>
+  </si>
+  <si>
+    <t>consult</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>continu</t>
+  </si>
+  <si>
+    <t>contribut</t>
+  </si>
+  <si>
+    <t>cooper</t>
+  </si>
+  <si>
+    <t>coordin</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>councilor</t>
+  </si>
+  <si>
+    <t>cours</t>
+  </si>
+  <si>
+    <t>cpc</t>
+  </si>
+  <si>
+    <t>creat</t>
+  </si>
+  <si>
+    <t>crisi</t>
+  </si>
+  <si>
+    <t>daili</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>decad</t>
+  </si>
+  <si>
+    <t>decoupl</t>
+  </si>
+  <si>
+    <t>deep</t>
+  </si>
+  <si>
+    <t>deepen</t>
+  </si>
+  <si>
+    <t>deficit</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>demonstr</t>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>dialogu</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>digit</t>
+  </si>
+  <si>
+    <t>diplomaci</t>
+  </si>
+  <si>
+    <t>diplomat</t>
   </si>
   <si>
     <t>direct</t>
   </si>
   <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>diseases</t>
-  </si>
-  <si>
-    <t>distribution</t>
-  </si>
-  <si>
-    <t>divided</t>
-  </si>
-  <si>
-    <t>donated</t>
-  </si>
-  <si>
-    <t>doses</t>
-  </si>
-  <si>
-    <t>economy</t>
-  </si>
-  <si>
-    <t>efficacy</t>
-  </si>
-  <si>
-    <t>ema</t>
-  </si>
-  <si>
-    <t>employment</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>evidence</t>
-  </si>
-  <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>experts</t>
-  </si>
-  <si>
-    <t>fatalities</t>
-  </si>
-  <si>
-    <t>fed</t>
+    <t>disrupt</t>
+  </si>
+  <si>
+    <t>divers</t>
+  </si>
+  <si>
+    <t>domest</t>
+  </si>
+  <si>
+    <t>dual</t>
+  </si>
+  <si>
+    <t>dynam</t>
+  </si>
+  <si>
+    <t>ecommerc</t>
+  </si>
+  <si>
+    <t>econom</t>
+  </si>
+  <si>
+    <t>economi</t>
+  </si>
+  <si>
+    <t>educ</t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t>els</t>
+  </si>
+  <si>
+    <t>embark</t>
+  </si>
+  <si>
+    <t>embrac</t>
+  </si>
+  <si>
+    <t>emiss</t>
+  </si>
+  <si>
+    <t>enabl</t>
+  </si>
+  <si>
+    <t>energi</t>
+  </si>
+  <si>
+    <t>engag</t>
+  </si>
+  <si>
+    <t>engin</t>
+  </si>
+  <si>
+    <t>enhanc</t>
+  </si>
+  <si>
+    <t>enterpris</t>
+  </si>
+  <si>
+    <t>environ</t>
+  </si>
+  <si>
+    <t>equiti</t>
+  </si>
+  <si>
+    <t>era</t>
+  </si>
+  <si>
+    <t>especi</t>
+  </si>
+  <si>
+    <t>establish</t>
+  </si>
+  <si>
+    <t>exampl</t>
+  </si>
+  <si>
+    <t>exchang</t>
+  </si>
+  <si>
+    <t>expand</t>
+  </si>
+  <si>
+    <t>expans</t>
+  </si>
+  <si>
+    <t>experi</t>
+  </si>
+  <si>
+    <t>expertis</t>
+  </si>
+  <si>
+    <t>explor</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>extens</t>
+  </si>
+  <si>
+    <t>extern</t>
+  </si>
+  <si>
+    <t>extraordinari</t>
+  </si>
+  <si>
+    <t>extrem</t>
+  </si>
+  <si>
+    <t>facilit</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>fellow</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>financ</t>
+  </si>
+  <si>
+    <t>financi</t>
+  </si>
+  <si>
+    <t>firmli</t>
+  </si>
+  <si>
+    <t>fiscal</t>
+  </si>
+  <si>
+    <t>fiveyear</t>
+  </si>
+  <si>
+    <t>focu</t>
+  </si>
+  <si>
+    <t>focus</t>
   </si>
   <si>
     <t>foreign</t>
   </si>
   <si>
-    <t>future</t>
-  </si>
-  <si>
-    <t>gao</t>
-  </si>
-  <si>
-    <t>ghana</t>
+    <t>form</t>
+  </si>
+  <si>
+    <t>forum</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>foster</t>
+  </si>
+  <si>
+    <t>foundat</t>
+  </si>
+  <si>
+    <t>framework</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friendli</t>
+  </si>
+  <si>
+    <t>friendship</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>fundament</t>
+  </si>
+  <si>
+    <t>futur</t>
+  </si>
+  <si>
+    <t>gdp</t>
+  </si>
+  <si>
+    <t>gener</t>
+  </si>
+  <si>
+    <t>geopolit</t>
   </si>
   <si>
     <t>global</t>
@@ -238,298 +553,562 @@
     <t>goal</t>
   </si>
   <si>
-    <t>governance</t>
-  </si>
-  <si>
-    <t>hungary</t>
-  </si>
-  <si>
-    <t>improving</t>
-  </si>
-  <si>
-    <t>inauguration</t>
-  </si>
-  <si>
-    <t>inflation</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>inoculated</t>
-  </si>
-  <si>
-    <t>international</t>
-  </si>
-  <si>
-    <t>investors</t>
-  </si>
-  <si>
-    <t>issued</t>
-  </si>
-  <si>
-    <t>jabs</t>
-  </si>
-  <si>
-    <t>jillson</t>
+    <t>green</t>
+  </si>
+  <si>
+    <t>grow</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>highlevel</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>highqual</t>
+  </si>
+  <si>
+    <t>histor</t>
+  </si>
+  <si>
+    <t>histori</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>humanitarian</t>
+  </si>
+  <si>
+    <t>ideolog</t>
+  </si>
+  <si>
+    <t>ifandroid</t>
+  </si>
+  <si>
+    <t>ifiphoneipadipod</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>implement</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>improv</t>
+  </si>
+  <si>
+    <t>inclus</t>
+  </si>
+  <si>
+    <t>incom</t>
+  </si>
+  <si>
+    <t>inde</t>
+  </si>
+  <si>
+    <t>industri</t>
+  </si>
+  <si>
+    <t>influenc</t>
+  </si>
+  <si>
+    <t>infrastructur</t>
+  </si>
+  <si>
+    <t>initi</t>
+  </si>
+  <si>
+    <t>innov</t>
+  </si>
+  <si>
+    <t>institut</t>
+  </si>
+  <si>
+    <t>integr</t>
+  </si>
+  <si>
+    <t>intellig</t>
+  </si>
+  <si>
+    <t>intern</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>issu</t>
+  </si>
+  <si>
+    <t>jinp</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>joint</t>
+  </si>
+  <si>
+    <t>jointli</t>
+  </si>
+  <si>
+    <t>journey</t>
   </si>
   <si>
     <t>jsp</t>
   </si>
   <si>
-    <t>latestage</t>
-  </si>
-  <si>
-    <t>latvia</t>
-  </si>
-  <si>
-    <t>leaders</t>
-  </si>
-  <si>
-    <t>letter</t>
-  </si>
-  <si>
-    <t>macron</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>largest</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>leadership</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>liber</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>longterm</t>
+  </si>
+  <si>
+    <t>macroeconom</t>
+  </si>
+  <si>
+    <t>mainstay</t>
+  </si>
+  <si>
+    <t>maintain</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>mankind</t>
+  </si>
+  <si>
+    <t>market</t>
   </si>
   <si>
     <t>matchmicromessengeri</t>
   </si>
   <si>
-    <t>meeting</t>
-  </si>
-  <si>
-    <t>micromessenger</t>
-  </si>
-  <si>
-    <t>military</t>
-  </si>
-  <si>
-    <t>minister</t>
-  </si>
-  <si>
-    <t>ministry</t>
-  </si>
-  <si>
-    <t>modi</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>museum</t>
-  </si>
-  <si>
-    <t>museums</t>
+    <t>materi</t>
+  </si>
+  <si>
+    <t>mechan</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>micromesseng</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>modern</t>
+  </si>
+  <si>
+    <t>momentum</t>
+  </si>
+  <si>
+    <t>monetari</t>
+  </si>
+  <si>
+    <t>multilater</t>
   </si>
   <si>
     <t>mutual</t>
   </si>
   <si>
-    <t>necessities</t>
-  </si>
-  <si>
-    <t>novavax</t>
-  </si>
-  <si>
-    <t>nucleic</t>
-  </si>
-  <si>
-    <t>officials</t>
+    <t>navig</t>
+  </si>
+  <si>
+    <t>necessarili</t>
+  </si>
+  <si>
+    <t>negoti</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>onli</t>
   </si>
   <si>
     <t>opena</t>
   </si>
   <si>
-    <t>optimistic</t>
-  </si>
-  <si>
-    <t>organizations</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>pcr</t>
-  </si>
-  <si>
-    <t>peoples</t>
+    <t>openingup</t>
+  </si>
+  <si>
+    <t>openwww</t>
+  </si>
+  <si>
+    <t>opinion</t>
+  </si>
+  <si>
+    <t>opinionchinadaili</t>
+  </si>
+  <si>
+    <t>opportun</t>
+  </si>
+  <si>
+    <t>outcom</t>
+  </si>
+  <si>
+    <t>outlook</t>
+  </si>
+  <si>
+    <t>overcom</t>
+  </si>
+  <si>
+    <t>pandem</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>parti</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>partnership</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>peac</t>
+  </si>
+  <si>
+    <t>peopletopeopl</t>
+  </si>
+  <si>
+    <t>photoag</t>
   </si>
   <si>
     <t>pkgnamecom</t>
   </si>
   <si>
-    <t>played</t>
-  </si>
-  <si>
-    <t>pledge</t>
-  </si>
-  <si>
-    <t>poland</t>
-  </si>
-  <si>
-    <t>powell</t>
-  </si>
-  <si>
-    <t>presidential</t>
-  </si>
-  <si>
-    <t>preventing</t>
-  </si>
-  <si>
-    <t>prime</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>production</t>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>pleas</t>
+  </si>
+  <si>
+    <t>pledg</t>
+  </si>
+  <si>
+    <t>polici</t>
+  </si>
+  <si>
+    <t>polit</t>
+  </si>
+  <si>
+    <t>posit</t>
+  </si>
+  <si>
+    <t>postpandem</t>
+  </si>
+  <si>
+    <t>potenti</t>
+  </si>
+  <si>
+    <t>poverti</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>practic</t>
+  </si>
+  <si>
+    <t>presid</t>
+  </si>
+  <si>
+    <t>principl</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>progress</t>
   </si>
   <si>
-    <t>projects</t>
+    <t>project</t>
+  </si>
+  <si>
+    <t>promot</t>
+  </si>
+  <si>
+    <t>propos</t>
+  </si>
+  <si>
+    <t>prospect</t>
+  </si>
+  <si>
+    <t>prosper</t>
   </si>
   <si>
     <t>protection</t>
   </si>
   <si>
-    <t>public</t>
+    <t>provid</t>
+  </si>
+  <si>
+    <t>pursu</t>
+  </si>
+  <si>
+    <t>pursuit</t>
   </si>
   <si>
     <t>qq</t>
   </si>
   <si>
-    <t>quarantine</t>
-  </si>
-  <si>
-    <t>quarterly</t>
-  </si>
-  <si>
-    <t>rare</t>
-  </si>
-  <si>
-    <t>rates</t>
-  </si>
-  <si>
-    <t>receive</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>record</t>
-  </si>
-  <si>
-    <t>reforms</t>
-  </si>
-  <si>
-    <t>reopen</t>
-  </si>
-  <si>
-    <t>reported</t>
-  </si>
-  <si>
-    <t>reporting</t>
-  </si>
-  <si>
-    <t>representative</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>revenue</t>
-  </si>
-  <si>
-    <t>rios</t>
-  </si>
-  <si>
-    <t>ruili</t>
-  </si>
-  <si>
-    <t>schools</t>
-  </si>
-  <si>
-    <t>scientist</t>
-  </si>
-  <si>
-    <t>semifinished</t>
-  </si>
-  <si>
-    <t>senior</t>
-  </si>
-  <si>
-    <t>sept</t>
+    <t>qualiti</t>
+  </si>
+  <si>
+    <t>reach</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>realiz</t>
+  </si>
+  <si>
+    <t>recess</t>
+  </si>
+  <si>
+    <t>recoveri</t>
+  </si>
+  <si>
+    <t>reflect</t>
+  </si>
+  <si>
+    <t>reform</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>relat</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>repres</t>
+  </si>
+  <si>
+    <t>republ</t>
+  </si>
+  <si>
+    <t>resili</t>
+  </si>
+  <si>
+    <t>resourc</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>respons</t>
+  </si>
+  <si>
+    <t>restor</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>safeguard</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>scholar</t>
+  </si>
+  <si>
+    <t>scienc</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>secur</t>
+  </si>
+  <si>
+    <t>seek</t>
+  </si>
+  <si>
+    <t>serv</t>
   </si>
   <si>
     <t>set</t>
   </si>
   <si>
-    <t>shared</t>
-  </si>
-  <si>
-    <t>shenzhen</t>
-  </si>
-  <si>
-    <t>shots</t>
-  </si>
-  <si>
-    <t>significance</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>sinopharm</t>
-  </si>
-  <si>
-    <t>slow</t>
-  </si>
-  <si>
-    <t>sp</t>
-  </si>
-  <si>
-    <t>statement</t>
-  </si>
-  <si>
-    <t>stored</t>
-  </si>
-  <si>
-    <t>swift</t>
-  </si>
-  <si>
-    <t>sworn</t>
-  </si>
-  <si>
-    <t>syringes</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>shareweixin</t>
+  </si>
+  <si>
+    <t>signific</t>
+  </si>
+  <si>
+    <t>silk</t>
+  </si>
+  <si>
+    <t>sincer</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>socialist</t>
+  </si>
+  <si>
+    <t>societi</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>solidar</t>
+  </si>
+  <si>
+    <t>solut</t>
+  </si>
+  <si>
+    <t>southsouth</t>
+  </si>
+  <si>
+    <t>sovereignti</t>
+  </si>
+  <si>
+    <t>specif</t>
+  </si>
+  <si>
+    <t>spirit</t>
+  </si>
+  <si>
+    <t>stabil</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>strateg</t>
+  </si>
+  <si>
+    <t>strategi</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>strengthen</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>stronger</t>
+  </si>
+  <si>
+    <t>structur</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>sudden</t>
+  </si>
+  <si>
+    <t>summit</t>
+  </si>
+  <si>
+    <t>suppli</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>sustain</t>
   </si>
   <si>
     <t>system</t>
   </si>
   <si>
-    <t>takes</t>
-  </si>
-  <si>
-    <t>teachers</t>
-  </si>
-  <si>
-    <t>technical</t>
-  </si>
-  <si>
-    <t>television</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>tests</t>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>technolog</t>
+  </si>
+  <si>
+    <t>term</t>
   </si>
   <si>
     <t>testua</t>
@@ -538,82 +1117,103 @@
     <t>theotino</t>
   </si>
   <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>thursday</t>
-  </si>
-  <si>
-    <t>tokyo</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>treasury</t>
-  </si>
-  <si>
-    <t>trials</t>
-  </si>
-  <si>
-    <t>trump</t>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>thu</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>togeth</t>
+  </si>
+  <si>
+    <t>tolowercas</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>tradit</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t>trillion</t>
   </si>
   <si>
     <t>trust</t>
   </si>
   <si>
-    <t>twoday</t>
-  </si>
-  <si>
     <t>ua</t>
   </si>
   <si>
-    <t>universitys</t>
-  </si>
-  <si>
-    <t>vaccination</t>
-  </si>
-  <si>
-    <t>vaccine</t>
-  </si>
-  <si>
-    <t>vaccines</t>
-  </si>
-  <si>
-    <t>variant</t>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>unilater</t>
+  </si>
+  <si>
+    <t>univers</t>
+  </si>
+  <si>
+    <t>unpreced</t>
+  </si>
+  <si>
+    <t>uphold</t>
+  </si>
+  <si>
+    <t>userag</t>
+  </si>
+  <si>
+    <t>valu</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>variou</t>
   </si>
   <si>
     <t>view</t>
   </si>
   <si>
-    <t>welfare</t>
+    <t>vision</t>
+  </si>
+  <si>
+    <t>wang</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>weak</t>
   </si>
   <si>
     <t>window</t>
   </si>
   <si>
-    <t>worldwide</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>wuhan</t>
-  </si>
-  <si>
-    <t>xie</t>
-  </si>
-  <si>
-    <t>yin</t>
-  </si>
-  <si>
-    <t>yunnan</t>
-  </si>
-  <si>
-    <t>zhang</t>
-  </si>
-  <si>
-    <t>zimbabwe</t>
+    <t>winwin</t>
+  </si>
+  <si>
+    <t>wit</t>
+  </si>
+  <si>
+    <t>writer</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>yearonyear</t>
+  </si>
+  <si>
+    <t>yi</t>
   </si>
   <si>
     <t>主题1</t>
@@ -980,13 +1580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS4"/>
+  <dimension ref="A1:OK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:201">
+    <row r="1" spans="1:401">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,1820 +2187,4220 @@
       <c r="GS1" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="GT1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="NH1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="2" spans="1:201">
+    <row r="2" spans="1:401">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B2">
-        <v>0.3334771014359459</v>
+        <v>4.045366430937796</v>
       </c>
       <c r="C2">
-        <v>1.756094707839325</v>
+        <v>12.71076039915487</v>
       </c>
       <c r="D2">
-        <v>0.3436721223525144</v>
+        <v>1.045821302839214</v>
       </c>
       <c r="E2">
-        <v>0.3334622276966762</v>
+        <v>4.721799716274641</v>
       </c>
       <c r="F2">
-        <v>1.330140823504409</v>
+        <v>4.824771271747293</v>
       </c>
       <c r="G2">
-        <v>0.3335626864398197</v>
+        <v>3.846105967494341</v>
       </c>
       <c r="H2">
-        <v>5.351418849533016</v>
+        <v>0.4442972468369136</v>
       </c>
       <c r="I2">
-        <v>2.321505528687556</v>
+        <v>0.531825721789897</v>
       </c>
       <c r="J2">
-        <v>2.335553620314585</v>
+        <v>0.4100117464906481</v>
       </c>
       <c r="K2">
-        <v>0.3654598518731275</v>
+        <v>3.294806009428542</v>
       </c>
       <c r="L2">
-        <v>1.702007938376521</v>
+        <v>0.3516173626481295</v>
       </c>
       <c r="M2">
-        <v>6.052052796045436</v>
+        <v>2.366039502804625</v>
       </c>
       <c r="N2">
-        <v>0.3760301737633834</v>
+        <v>0.3397248513454552</v>
       </c>
       <c r="O2">
-        <v>0.3334742582472651</v>
+        <v>2.554189881362468</v>
       </c>
       <c r="P2">
-        <v>0.3664706219230774</v>
+        <v>0.350795982627802</v>
       </c>
       <c r="Q2">
-        <v>0.333384644414613</v>
+        <v>3.696716746247376</v>
       </c>
       <c r="R2">
-        <v>0.333493334976233</v>
+        <v>0.3524280470207599</v>
       </c>
       <c r="S2">
-        <v>0.3336218789029637</v>
+        <v>2.16832220276629</v>
       </c>
       <c r="T2">
-        <v>0.3334075335833476</v>
+        <v>268.2671372561164</v>
       </c>
       <c r="U2">
-        <v>1.327452263153079</v>
+        <v>1.596883312642024</v>
       </c>
       <c r="V2">
-        <v>0.3578755508358221</v>
+        <v>0.4034321898361839</v>
       </c>
       <c r="W2">
-        <v>0.3334312287063637</v>
+        <v>0.3848657168150829</v>
       </c>
       <c r="X2">
-        <v>1.327662117259628</v>
+        <v>1.915216101323101</v>
       </c>
       <c r="Y2">
-        <v>0.333383102156257</v>
+        <v>0.3573172374732057</v>
       </c>
       <c r="Z2">
-        <v>14.3226217457844</v>
+        <v>0.3391440464533558</v>
       </c>
       <c r="AA2">
-        <v>2.534743196420816</v>
+        <v>2.661235633120544</v>
       </c>
       <c r="AB2">
-        <v>0.3336425261223234</v>
+        <v>0.346810738963735</v>
       </c>
       <c r="AC2">
-        <v>1.331987667061622</v>
+        <v>0.4129318561419874</v>
       </c>
       <c r="AD2">
-        <v>15.93528339616998</v>
+        <v>0.3844529913963915</v>
       </c>
       <c r="AE2">
-        <v>1.910563601026541</v>
+        <v>0.3676027182203055</v>
       </c>
       <c r="AF2">
-        <v>3.526980570647977</v>
+        <v>5.988943609391971</v>
       </c>
       <c r="AG2">
-        <v>2.263128391851799</v>
+        <v>3.134371597048485</v>
       </c>
       <c r="AH2">
-        <v>0.3362164081420175</v>
+        <v>5.733999311843749</v>
       </c>
       <c r="AI2">
-        <v>0.3334229867114363</v>
+        <v>0.3478749241491592</v>
       </c>
       <c r="AJ2">
-        <v>0.3334888331048479</v>
+        <v>0.34945892201013</v>
       </c>
       <c r="AK2">
-        <v>2.335553620314585</v>
+        <v>3.827802635322281</v>
       </c>
       <c r="AL2">
-        <v>0.3333837438459906</v>
+        <v>0.3412095739784744</v>
       </c>
       <c r="AM2">
-        <v>0.333548297245946</v>
+        <v>2.699840286415131</v>
       </c>
       <c r="AN2">
-        <v>15.11424848788506</v>
+        <v>10.64619959261693</v>
       </c>
       <c r="AO2">
-        <v>0.3368827469785832</v>
+        <v>1.70440071525149</v>
       </c>
       <c r="AP2">
-        <v>0.3367009570556125</v>
+        <v>2.54694093968749</v>
       </c>
       <c r="AQ2">
-        <v>7.756962806944682</v>
+        <v>2.87050857667849</v>
       </c>
       <c r="AR2">
-        <v>8.820390785991412</v>
+        <v>7.562980883271799</v>
       </c>
       <c r="AS2">
-        <v>0.3350890243060041</v>
+        <v>20.17006544618951</v>
       </c>
       <c r="AT2">
-        <v>2.334240919036689</v>
+        <v>0.3379227693191444</v>
       </c>
       <c r="AU2">
-        <v>0.35326500143212</v>
+        <v>228.3252350799212</v>
       </c>
       <c r="AV2">
-        <v>3.334915082879436</v>
+        <v>2.237985404974034</v>
       </c>
       <c r="AW2">
-        <v>1.317281097522543</v>
+        <v>0.9754426058820027</v>
       </c>
       <c r="AX2">
-        <v>0.3383095679019915</v>
+        <v>3.390478009986649</v>
       </c>
       <c r="AY2">
-        <v>3.578809923758293</v>
+        <v>4.059009542436056</v>
       </c>
       <c r="AZ2">
-        <v>4.335621766338978</v>
+        <v>0.3799117267546476</v>
       </c>
       <c r="BA2">
-        <v>4.324606288285731</v>
+        <v>54.71593755408093</v>
       </c>
       <c r="BB2">
-        <v>19.68914067154983</v>
+        <v>0.3873511531597845</v>
       </c>
       <c r="BC2">
-        <v>7.352432264773543</v>
+        <v>283.2315727203326</v>
       </c>
       <c r="BD2">
-        <v>1.331412163180442</v>
+        <v>228.3252350799212</v>
       </c>
       <c r="BE2">
-        <v>0.3334094228148367</v>
+        <v>228.3252350799212</v>
       </c>
       <c r="BF2">
-        <v>0.3334081717421021</v>
+        <v>10.32281934028165</v>
       </c>
       <c r="BG2">
-        <v>0.3517996837787873</v>
+        <v>0.3401307879296178</v>
       </c>
       <c r="BH2">
-        <v>3.327723487472512</v>
+        <v>0.3598519230409654</v>
       </c>
       <c r="BI2">
-        <v>0.3333897938469864</v>
+        <v>38.58792891169861</v>
       </c>
       <c r="BJ2">
-        <v>0.333426894872541</v>
+        <v>0.3460646422403488</v>
       </c>
       <c r="BK2">
-        <v>0.3334091613224355</v>
+        <v>0.3696784803070965</v>
       </c>
       <c r="BL2">
-        <v>0.3334968525530483</v>
+        <v>0.3712411885690322</v>
       </c>
       <c r="BM2">
-        <v>0.3334094033216477</v>
+        <v>20.37420984850122</v>
       </c>
       <c r="BN2">
-        <v>0.3334091613224355</v>
+        <v>228.3252350799212</v>
       </c>
       <c r="BO2">
-        <v>6.347781935562094</v>
+        <v>0.4535578113877441</v>
       </c>
       <c r="BP2">
-        <v>0.3396687314627392</v>
+        <v>0.3344952363814139</v>
       </c>
       <c r="BQ2">
-        <v>1.318894709428548</v>
+        <v>8.428539881326008</v>
       </c>
       <c r="BR2">
-        <v>0.3509332020930558</v>
+        <v>1.144018985907472</v>
       </c>
       <c r="BS2">
-        <v>1.459496183572432</v>
+        <v>10.89851662355984</v>
       </c>
       <c r="BT2">
-        <v>5.333320867368381</v>
+        <v>0.3715408277274802</v>
       </c>
       <c r="BU2">
-        <v>0.3334171927138806</v>
+        <v>228.3252350799212</v>
       </c>
       <c r="BV2">
-        <v>1.752293325090948</v>
+        <v>2.332178693234459</v>
       </c>
       <c r="BW2">
-        <v>2.336617845559639</v>
+        <v>0.3493421453097764</v>
       </c>
       <c r="BX2">
-        <v>0.3333674911631635</v>
+        <v>0.3655077126156722</v>
       </c>
       <c r="BY2">
-        <v>0.3334537058688219</v>
+        <v>0.3517287797223446</v>
       </c>
       <c r="BZ2">
-        <v>3.333773321689876</v>
+        <v>0.3736220000175061</v>
       </c>
       <c r="CA2">
-        <v>0.3334094228148367</v>
+        <v>0.3381694217994389</v>
       </c>
       <c r="CB2">
-        <v>1.326339778824265</v>
+        <v>0.3483721752985061</v>
       </c>
       <c r="CC2">
-        <v>0.3334431012699189</v>
+        <v>0.4050592108866226</v>
       </c>
       <c r="CD2">
-        <v>4.327474166221609</v>
+        <v>0.3724828501755776</v>
       </c>
       <c r="CE2">
-        <v>0.3336883176160778</v>
+        <v>0.8081419825535512</v>
       </c>
       <c r="CF2">
-        <v>4.333253388566062</v>
+        <v>0.3788183852856604</v>
       </c>
       <c r="CG2">
-        <v>1.336130784337602</v>
+        <v>1.421733582998969</v>
       </c>
       <c r="CH2">
-        <v>4.299910752649784</v>
+        <v>0.3969212244309407</v>
       </c>
       <c r="CI2">
-        <v>0.3334094228148367</v>
+        <v>4.136232892187577</v>
       </c>
       <c r="CJ2">
-        <v>2.335553620314585</v>
+        <v>0.3936109618368503</v>
       </c>
       <c r="CK2">
-        <v>0.3334047753366</v>
+        <v>6.057895600984224</v>
       </c>
       <c r="CL2">
-        <v>0.3334094033216477</v>
+        <v>3.883197557421005</v>
       </c>
       <c r="CM2">
-        <v>0.3516534598530086</v>
+        <v>0.3469797987448571</v>
       </c>
       <c r="CN2">
-        <v>0.3582526617491033</v>
+        <v>0.3721978228916168</v>
       </c>
       <c r="CO2">
-        <v>8.31483348596773</v>
+        <v>1.074852001253981</v>
       </c>
       <c r="CP2">
-        <v>2.335553620314585</v>
+        <v>0.3846353990730665</v>
       </c>
       <c r="CQ2">
-        <v>3.325650509847986</v>
+        <v>0.3909550304558061</v>
       </c>
       <c r="CR2">
-        <v>2.335553620314585</v>
+        <v>0.3702886479415706</v>
       </c>
       <c r="CS2">
-        <v>0.3333843689883149</v>
+        <v>0.3399278810451668</v>
       </c>
       <c r="CT2">
-        <v>2.581263249815386</v>
+        <v>2.853831257249234</v>
       </c>
       <c r="CU2">
-        <v>0.3514841056314879</v>
+        <v>2.818900720179315</v>
       </c>
       <c r="CV2">
-        <v>0.3335470246614763</v>
+        <v>0.3638463178055754</v>
       </c>
       <c r="CW2">
-        <v>4.325114321893095</v>
+        <v>8.541201818510544</v>
       </c>
       <c r="CX2">
-        <v>7.33325775228727</v>
+        <v>2.676222591088854</v>
       </c>
       <c r="CY2">
-        <v>9.333258133101587</v>
+        <v>35.71013862251968</v>
       </c>
       <c r="CZ2">
-        <v>0.333387955800474</v>
+        <v>0.3446065919143835</v>
       </c>
       <c r="DA2">
-        <v>0.3334668355964795</v>
+        <v>3.496756771377821</v>
       </c>
       <c r="DB2">
-        <v>0.3334254002500955</v>
+        <v>0.4508807025030521</v>
       </c>
       <c r="DC2">
-        <v>0.3334771014359459</v>
+        <v>3.080328781556614</v>
       </c>
       <c r="DD2">
-        <v>1.335266037851589</v>
+        <v>0.3715207952456571</v>
       </c>
       <c r="DE2">
-        <v>2.335553620314585</v>
+        <v>4.77243183775183</v>
       </c>
       <c r="DF2">
-        <v>1.33258607261241</v>
+        <v>2.638879036013656</v>
       </c>
       <c r="DG2">
-        <v>0.3334979885023442</v>
+        <v>0.3468128218461064</v>
       </c>
       <c r="DH2">
-        <v>9.563289933733802</v>
+        <v>4.27932121857583</v>
       </c>
       <c r="DI2">
-        <v>0.3333611282789666</v>
+        <v>0.3785579308645034</v>
       </c>
       <c r="DJ2">
-        <v>0.333446310620908</v>
+        <v>0.3391265919001942</v>
       </c>
       <c r="DK2">
-        <v>2.570902456092648</v>
+        <v>0.3515846166700683</v>
       </c>
       <c r="DL2">
-        <v>2.335553620314585</v>
+        <v>9.564848539518202</v>
       </c>
       <c r="DM2">
-        <v>0.3335415503530058</v>
+        <v>6.248519295160708</v>
       </c>
       <c r="DN2">
-        <v>1.332362839801998</v>
+        <v>1.956974731406663</v>
       </c>
       <c r="DO2">
-        <v>0.3335849641971196</v>
+        <v>14.11166092869095</v>
       </c>
       <c r="DP2">
-        <v>0.3334101019273292</v>
+        <v>247.9052926418345</v>
       </c>
       <c r="DQ2">
-        <v>0.3334084905317042</v>
+        <v>0.3615947565824333</v>
       </c>
       <c r="DR2">
-        <v>0.3334063660437822</v>
+        <v>0.9717859979453942</v>
       </c>
       <c r="DS2">
-        <v>0.3446624059936267</v>
+        <v>0.341520199689757</v>
       </c>
       <c r="DT2">
-        <v>0.3843054200231659</v>
+        <v>0.4334202617730857</v>
       </c>
       <c r="DU2">
-        <v>0.3334254002500955</v>
+        <v>0.4006618032856319</v>
       </c>
       <c r="DV2">
-        <v>0.3785701630932249</v>
+        <v>0.356947644269102</v>
       </c>
       <c r="DW2">
-        <v>0.3334644411096736</v>
+        <v>0.35161946010781</v>
       </c>
       <c r="DX2">
-        <v>0.3333782658006744</v>
+        <v>0.3695511457416505</v>
       </c>
       <c r="DY2">
-        <v>0.3333833606873486</v>
+        <v>0.4256131963863354</v>
       </c>
       <c r="DZ2">
-        <v>19.72080856687965</v>
+        <v>0.3535329197350062</v>
       </c>
       <c r="EA2">
-        <v>2.335553620314585</v>
+        <v>2.276295470132782</v>
       </c>
       <c r="EB2">
-        <v>0.3335335877076646</v>
+        <v>0.3518470864646135</v>
       </c>
       <c r="EC2">
-        <v>3.333252397249595</v>
+        <v>3.424103151007235</v>
       </c>
       <c r="ED2">
-        <v>0.333433064605127</v>
+        <v>0.4109186274879767</v>
       </c>
       <c r="EE2">
-        <v>0.3335212331297248</v>
+        <v>0.4034149714470072</v>
       </c>
       <c r="EF2">
-        <v>2.09960692318096</v>
+        <v>0.3704254437327153</v>
       </c>
       <c r="EG2">
-        <v>0.3335164846739609</v>
+        <v>3.260664859897061</v>
       </c>
       <c r="EH2">
-        <v>2.315754859709918</v>
+        <v>0.3818156579477913</v>
       </c>
       <c r="EI2">
-        <v>0.3333699055490023</v>
+        <v>0.3592285860964788</v>
       </c>
       <c r="EJ2">
-        <v>1.335659326643445</v>
+        <v>0.3664238346930944</v>
       </c>
       <c r="EK2">
-        <v>2.389041435201842</v>
+        <v>0.3631853903732728</v>
       </c>
       <c r="EL2">
-        <v>3.33332061623784</v>
+        <v>6.049826167292287</v>
       </c>
       <c r="EM2">
-        <v>0.3334319719680435</v>
+        <v>2.945897003755686</v>
       </c>
       <c r="EN2">
-        <v>1.33735903029841</v>
+        <v>0.4212533428651005</v>
       </c>
       <c r="EO2">
-        <v>2.333596884172144</v>
+        <v>0.3493436885547078</v>
       </c>
       <c r="EP2">
-        <v>0.333600004161299</v>
+        <v>0.3775178625702085</v>
       </c>
       <c r="EQ2">
-        <v>0.3334742582472651</v>
+        <v>0.4352946897018806</v>
       </c>
       <c r="ER2">
-        <v>5.102069049841917</v>
+        <v>0.381839833656489</v>
       </c>
       <c r="ES2">
-        <v>0.3334647020461918</v>
+        <v>0.3800885337539391</v>
       </c>
       <c r="ET2">
-        <v>3.281894896365736</v>
+        <v>6.830057170604293</v>
       </c>
       <c r="EU2">
-        <v>1.332237292367828</v>
+        <v>3.724903014113089</v>
       </c>
       <c r="EV2">
-        <v>0.3335358521363455</v>
+        <v>1.42987925431342</v>
       </c>
       <c r="EW2">
-        <v>2.848747933581322</v>
+        <v>10.65553627383305</v>
       </c>
       <c r="EX2">
-        <v>0.3333645415914269</v>
+        <v>2.029983434578027</v>
       </c>
       <c r="EY2">
-        <v>5.245691540007858</v>
+        <v>3.119992063757679</v>
       </c>
       <c r="EZ2">
-        <v>0.3362720263758017</v>
+        <v>0.3350330321719214</v>
       </c>
       <c r="FA2">
-        <v>2.335040395093703</v>
+        <v>0.4237025645643698</v>
       </c>
       <c r="FB2">
-        <v>0.3334276822395513</v>
+        <v>0.3609172718720133</v>
       </c>
       <c r="FC2">
-        <v>0.3334383535762493</v>
+        <v>0.4025396874577795</v>
       </c>
       <c r="FD2">
-        <v>2.336140393793655</v>
+        <v>0.3930924208648586</v>
       </c>
       <c r="FE2">
-        <v>3.33632006455189</v>
+        <v>15.67904697026539</v>
       </c>
       <c r="FF2">
-        <v>0.335048841009163</v>
+        <v>0.4011764036997332</v>
       </c>
       <c r="FG2">
-        <v>3.310754034143724</v>
+        <v>1.932951593218703</v>
       </c>
       <c r="FH2">
-        <v>2.34250335692427</v>
+        <v>0.3748624087331875</v>
       </c>
       <c r="FI2">
-        <v>0.3334094228148367</v>
+        <v>0.3365898712249603</v>
       </c>
       <c r="FJ2">
-        <v>3.281894896365736</v>
+        <v>0.3950193470274556</v>
       </c>
       <c r="FK2">
-        <v>12.28484374198364</v>
+        <v>0.3953837970007901</v>
       </c>
       <c r="FL2">
-        <v>0.3335019801919238</v>
+        <v>3.474011527167804</v>
       </c>
       <c r="FM2">
-        <v>0.3468741468921476</v>
+        <v>0.3522218401000585</v>
       </c>
       <c r="FN2">
-        <v>2.334240919036689</v>
+        <v>0.354641008128377</v>
       </c>
       <c r="FO2">
-        <v>0.3335070442006138</v>
+        <v>0.3417135328388705</v>
       </c>
       <c r="FP2">
-        <v>1.334292300630818</v>
+        <v>251.7531147678449</v>
       </c>
       <c r="FQ2">
-        <v>0.333446310620908</v>
+        <v>8.8962396776134</v>
       </c>
       <c r="FR2">
-        <v>2.335553620314585</v>
+        <v>0.3856281641158562</v>
       </c>
       <c r="FS2">
-        <v>2.335553620314585</v>
+        <v>0.392235218460917</v>
       </c>
       <c r="FT2">
-        <v>0.3333730864175614</v>
+        <v>4.535918500135317</v>
       </c>
       <c r="FU2">
-        <v>0.3337645851147581</v>
+        <v>7.025938941624092</v>
       </c>
       <c r="FV2">
-        <v>4.304548885533599</v>
+        <v>0.3467545073678554</v>
       </c>
       <c r="FW2">
-        <v>0.3335158607555898</v>
+        <v>39.33882201525142</v>
       </c>
       <c r="FX2">
-        <v>0.3334101019273292</v>
+        <v>0.42188157280865</v>
       </c>
       <c r="FY2">
-        <v>0.3369478437377487</v>
+        <v>1.17901558825757</v>
       </c>
       <c r="FZ2">
-        <v>0.3334094228148367</v>
+        <v>3.420566006081776</v>
       </c>
       <c r="GA2">
-        <v>0.3333699055490023</v>
+        <v>0.3705986621913703</v>
       </c>
       <c r="GB2">
-        <v>1.33258607261241</v>
+        <v>0.4324115216093072</v>
       </c>
       <c r="GC2">
-        <v>3.336790727695211</v>
+        <v>4.262816514141004</v>
       </c>
       <c r="GD2">
-        <v>3.335198792890075</v>
+        <v>0.3885244463870321</v>
       </c>
       <c r="GE2">
-        <v>0.339402025422253</v>
+        <v>0.455115201124247</v>
       </c>
       <c r="GF2">
-        <v>7.062735309122225</v>
+        <v>0.344061500571765</v>
       </c>
       <c r="GG2">
-        <v>3.656850870362701</v>
+        <v>1.90428205781473</v>
       </c>
       <c r="GH2">
-        <v>0.3376311185210278</v>
+        <v>0.3902429561853324</v>
       </c>
       <c r="GI2">
-        <v>1.334555271088302</v>
+        <v>11.86744146667426</v>
       </c>
       <c r="GJ2">
-        <v>2.321175476761108</v>
+        <v>228.3252350799212</v>
       </c>
       <c r="GK2">
-        <v>4.338493601085427</v>
+        <v>2.243192589098992</v>
       </c>
       <c r="GL2">
-        <v>3.497887453524924</v>
+        <v>3.975176290954837</v>
       </c>
       <c r="GM2">
-        <v>5.333320867368381</v>
+        <v>0.3814792131279743</v>
       </c>
       <c r="GN2">
-        <v>0.3335248287123858</v>
+        <v>2.031210062524099</v>
       </c>
       <c r="GO2">
-        <v>0.3334827421579196</v>
+        <v>228.3252350799212</v>
       </c>
       <c r="GP2">
-        <v>5.283607142524735</v>
+        <v>228.3252350799212</v>
       </c>
       <c r="GQ2">
-        <v>0.3338314209704324</v>
+        <v>0.3870482532531272</v>
       </c>
       <c r="GR2">
-        <v>2.313994425253596</v>
+        <v>0.400149582765963</v>
       </c>
       <c r="GS2">
-        <v>0.3334145837870222</v>
+        <v>7.408583372706253</v>
+      </c>
+      <c r="GT2">
+        <v>0.4160358341751448</v>
+      </c>
+      <c r="GU2">
+        <v>1.964235324600752</v>
+      </c>
+      <c r="GV2">
+        <v>0.3840866343690381</v>
+      </c>
+      <c r="GW2">
+        <v>0.3738834268787009</v>
+      </c>
+      <c r="GX2">
+        <v>12.40836027707532</v>
+      </c>
+      <c r="GY2">
+        <v>3.196701606125085</v>
+      </c>
+      <c r="GZ2">
+        <v>0.3811008820620274</v>
+      </c>
+      <c r="HA2">
+        <v>8.532320568326897</v>
+      </c>
+      <c r="HB2">
+        <v>0.4571005452084066</v>
+      </c>
+      <c r="HC2">
+        <v>0.3897898348964174</v>
+      </c>
+      <c r="HD2">
+        <v>0.3508079877615973</v>
+      </c>
+      <c r="HE2">
+        <v>1.830051923116256</v>
+      </c>
+      <c r="HF2">
+        <v>17.92655463698624</v>
+      </c>
+      <c r="HG2">
+        <v>0.3478687321659716</v>
+      </c>
+      <c r="HH2">
+        <v>6.1453290851051</v>
+      </c>
+      <c r="HI2">
+        <v>0.3424552558162243</v>
+      </c>
+      <c r="HJ2">
+        <v>11.5059025694527</v>
+      </c>
+      <c r="HK2">
+        <v>1.333362305822036</v>
+      </c>
+      <c r="HL2">
+        <v>3.376341571263118</v>
+      </c>
+      <c r="HM2">
+        <v>1.394942201969222</v>
+      </c>
+      <c r="HN2">
+        <v>228.3252350799212</v>
+      </c>
+      <c r="HO2">
+        <v>5.246921094124622</v>
+      </c>
+      <c r="HP2">
+        <v>3.703699434133821</v>
+      </c>
+      <c r="HQ2">
+        <v>0.3871776213370331</v>
+      </c>
+      <c r="HR2">
+        <v>3.063696878226524</v>
+      </c>
+      <c r="HS2">
+        <v>9.902714750497884</v>
+      </c>
+      <c r="HT2">
+        <v>0.3812555604903481</v>
+      </c>
+      <c r="HU2">
+        <v>12.86102981670112</v>
+      </c>
+      <c r="HV2">
+        <v>0.345639694974067</v>
+      </c>
+      <c r="HW2">
+        <v>5.801787114997146</v>
+      </c>
+      <c r="HX2">
+        <v>0.3660620672883983</v>
+      </c>
+      <c r="HY2">
+        <v>0.3726735548539089</v>
+      </c>
+      <c r="HZ2">
+        <v>0.3471441726766429</v>
+      </c>
+      <c r="IA2">
+        <v>0.3880820339730572</v>
+      </c>
+      <c r="IB2">
+        <v>3.709287694321828</v>
+      </c>
+      <c r="IC2">
+        <v>20.14677263736908</v>
+      </c>
+      <c r="ID2">
+        <v>0.3738540114563639</v>
+      </c>
+      <c r="IE2">
+        <v>0.4131866295983549</v>
+      </c>
+      <c r="IF2">
+        <v>228.3252350799212</v>
+      </c>
+      <c r="IG2">
+        <v>5.06196356273405</v>
+      </c>
+      <c r="IH2">
+        <v>0.373198637869062</v>
+      </c>
+      <c r="II2">
+        <v>13.31260738581684</v>
+      </c>
+      <c r="IJ2">
+        <v>228.3252350799212</v>
+      </c>
+      <c r="IK2">
+        <v>0.3811290662214977</v>
+      </c>
+      <c r="IL2">
+        <v>0.342322205444529</v>
+      </c>
+      <c r="IM2">
+        <v>3.654452172397542</v>
+      </c>
+      <c r="IN2">
+        <v>3.840621754468494</v>
+      </c>
+      <c r="IO2">
+        <v>2.026097740035189</v>
+      </c>
+      <c r="IP2">
+        <v>0.3488934520037957</v>
+      </c>
+      <c r="IQ2">
+        <v>239.4513315738702</v>
+      </c>
+      <c r="IR2">
+        <v>0.3785649979646972</v>
+      </c>
+      <c r="IS2">
+        <v>0.4102325251929462</v>
+      </c>
+      <c r="IT2">
+        <v>0.468043636284976</v>
+      </c>
+      <c r="IU2">
+        <v>16.17686833661323</v>
+      </c>
+      <c r="IV2">
+        <v>228.3252350799212</v>
+      </c>
+      <c r="IW2">
+        <v>0.3455029037545009</v>
+      </c>
+      <c r="IX2">
+        <v>228.3252350799212</v>
+      </c>
+      <c r="IY2">
+        <v>2.158223425848292</v>
+      </c>
+      <c r="IZ2">
+        <v>0.3344952363814139</v>
+      </c>
+      <c r="JA2">
+        <v>0.3942013705418621</v>
+      </c>
+      <c r="JB2">
+        <v>1.672551493373255</v>
+      </c>
+      <c r="JC2">
+        <v>0.3521732708908691</v>
+      </c>
+      <c r="JD2">
+        <v>0.4407086281560344</v>
+      </c>
+      <c r="JE2">
+        <v>55.99474370293409</v>
+      </c>
+      <c r="JF2">
+        <v>0.3424258402985385</v>
+      </c>
+      <c r="JG2">
+        <v>0.4714013297891135</v>
+      </c>
+      <c r="JH2">
+        <v>2.803672009719334</v>
+      </c>
+      <c r="JI2">
+        <v>3.630311521842611</v>
+      </c>
+      <c r="JJ2">
+        <v>0.3432139346156081</v>
+      </c>
+      <c r="JK2">
+        <v>0.3436180701937864</v>
+      </c>
+      <c r="JL2">
+        <v>0.3347319754433837</v>
+      </c>
+      <c r="JM2">
+        <v>0.3348175962708549</v>
+      </c>
+      <c r="JN2">
+        <v>228.3252350799212</v>
+      </c>
+      <c r="JO2">
+        <v>0.3802896601023356</v>
+      </c>
+      <c r="JP2">
+        <v>0.3826944331952777</v>
+      </c>
+      <c r="JQ2">
+        <v>0.3502810654022011</v>
+      </c>
+      <c r="JR2">
+        <v>5.362178487125211</v>
+      </c>
+      <c r="JS2">
+        <v>0.3754303123607945</v>
+      </c>
+      <c r="JT2">
+        <v>13.00613927506986</v>
+      </c>
+      <c r="JU2">
+        <v>0.4752450952939367</v>
+      </c>
+      <c r="JV2">
+        <v>0.3438463643524483</v>
+      </c>
+      <c r="JW2">
+        <v>2.88981852970084</v>
+      </c>
+      <c r="JX2">
+        <v>0.3764479388131991</v>
+      </c>
+      <c r="JY2">
+        <v>0.4236661169495147</v>
+      </c>
+      <c r="JZ2">
+        <v>2.907152090417927</v>
+      </c>
+      <c r="KA2">
+        <v>39.48153435407058</v>
+      </c>
+      <c r="KB2">
+        <v>0.3760157087472652</v>
+      </c>
+      <c r="KC2">
+        <v>2.704438919203485</v>
+      </c>
+      <c r="KD2">
+        <v>3.90494259006979</v>
+      </c>
+      <c r="KE2">
+        <v>0.3691045424143012</v>
+      </c>
+      <c r="KF2">
+        <v>5.039311232390009</v>
+      </c>
+      <c r="KG2">
+        <v>7.739734262250809</v>
+      </c>
+      <c r="KH2">
+        <v>5.839779660233991</v>
+      </c>
+      <c r="KI2">
+        <v>0.3430180577104033</v>
+      </c>
+      <c r="KJ2">
+        <v>2.643811603443971</v>
+      </c>
+      <c r="KK2">
+        <v>20.86762241940825</v>
+      </c>
+      <c r="KL2">
+        <v>0.4424614516598537</v>
+      </c>
+      <c r="KM2">
+        <v>0.3350726131918856</v>
+      </c>
+      <c r="KN2">
+        <v>228.3252350799212</v>
+      </c>
+      <c r="KO2">
+        <v>0.3755088417943621</v>
+      </c>
+      <c r="KP2">
+        <v>0.4203057811646019</v>
+      </c>
+      <c r="KQ2">
+        <v>0.4199485948431747</v>
+      </c>
+      <c r="KR2">
+        <v>0.4468027199790811</v>
+      </c>
+      <c r="KS2">
+        <v>0.4080029597824662</v>
+      </c>
+      <c r="KT2">
+        <v>0.4792499193612744</v>
+      </c>
+      <c r="KU2">
+        <v>0.4083262887619586</v>
+      </c>
+      <c r="KV2">
+        <v>0.3575928718542559</v>
+      </c>
+      <c r="KW2">
+        <v>0.4320430609333132</v>
+      </c>
+      <c r="KX2">
+        <v>0.3920517512230831</v>
+      </c>
+      <c r="KY2">
+        <v>0.3805562566040095</v>
+      </c>
+      <c r="KZ2">
+        <v>2.292261483293483</v>
+      </c>
+      <c r="LA2">
+        <v>0.4313772376703741</v>
+      </c>
+      <c r="LB2">
+        <v>0.3609244628214038</v>
+      </c>
+      <c r="LC2">
+        <v>4.366411911520236</v>
+      </c>
+      <c r="LD2">
+        <v>0.3471791560576982</v>
+      </c>
+      <c r="LE2">
+        <v>2.05235635147483</v>
+      </c>
+      <c r="LF2">
+        <v>0.363213553256946</v>
+      </c>
+      <c r="LG2">
+        <v>26.65873733433534</v>
+      </c>
+      <c r="LH2">
+        <v>0.3540049799741803</v>
+      </c>
+      <c r="LI2">
+        <v>9.81903199051461</v>
+      </c>
+      <c r="LJ2">
+        <v>0.4317295190599897</v>
+      </c>
+      <c r="LK2">
+        <v>0.4252711870546859</v>
+      </c>
+      <c r="LL2">
+        <v>1.953206263921045</v>
+      </c>
+      <c r="LM2">
+        <v>1.128145779326015</v>
+      </c>
+      <c r="LN2">
+        <v>0.3534500731367378</v>
+      </c>
+      <c r="LO2">
+        <v>0.4217489579736761</v>
+      </c>
+      <c r="LP2">
+        <v>3.841357149527182</v>
+      </c>
+      <c r="LQ2">
+        <v>7.676130724897768</v>
+      </c>
+      <c r="LR2">
+        <v>3.457428437722104</v>
+      </c>
+      <c r="LS2">
+        <v>0.3742326237345892</v>
+      </c>
+      <c r="LT2">
+        <v>4.847722149035655</v>
+      </c>
+      <c r="LU2">
+        <v>0.4064856870696531</v>
+      </c>
+      <c r="LV2">
+        <v>228.3252350799212</v>
+      </c>
+      <c r="LW2">
+        <v>0.3804399330416854</v>
+      </c>
+      <c r="LX2">
+        <v>0.337199452818269</v>
+      </c>
+      <c r="LY2">
+        <v>0.3350589386212861</v>
+      </c>
+      <c r="LZ2">
+        <v>0.3856976613570985</v>
+      </c>
+      <c r="MA2">
+        <v>0.3370447344786069</v>
+      </c>
+      <c r="MB2">
+        <v>0.4028742686118616</v>
+      </c>
+      <c r="MC2">
+        <v>0.3550802409804781</v>
+      </c>
+      <c r="MD2">
+        <v>4.913939421192797</v>
+      </c>
+      <c r="ME2">
+        <v>0.3504182486589319</v>
+      </c>
+      <c r="MF2">
+        <v>0.3424747916508773</v>
+      </c>
+      <c r="MG2">
+        <v>0.3453851767983019</v>
+      </c>
+      <c r="MH2">
+        <v>3.945088813627577</v>
+      </c>
+      <c r="MI2">
+        <v>0.3710252736019914</v>
+      </c>
+      <c r="MJ2">
+        <v>0.3751642572912769</v>
+      </c>
+      <c r="MK2">
+        <v>0.3958514557186668</v>
+      </c>
+      <c r="ML2">
+        <v>0.3533289474784196</v>
+      </c>
+      <c r="MM2">
+        <v>6.038717694110085</v>
+      </c>
+      <c r="MN2">
+        <v>2.116558450514193</v>
+      </c>
+      <c r="MO2">
+        <v>4.150503819663529</v>
+      </c>
+      <c r="MP2">
+        <v>0.3826936786082951</v>
+      </c>
+      <c r="MQ2">
+        <v>2.458414364607141</v>
+      </c>
+      <c r="MR2">
+        <v>0.4464208812499393</v>
+      </c>
+      <c r="MS2">
+        <v>4.056157934867309</v>
+      </c>
+      <c r="MT2">
+        <v>0.3527161785483141</v>
+      </c>
+      <c r="MU2">
+        <v>0.365607734818393</v>
+      </c>
+      <c r="MV2">
+        <v>14.99578481379896</v>
+      </c>
+      <c r="MW2">
+        <v>8.872159953306324</v>
+      </c>
+      <c r="MX2">
+        <v>0.3634573239637277</v>
+      </c>
+      <c r="MY2">
+        <v>0.3792404410152366</v>
+      </c>
+      <c r="MZ2">
+        <v>0.3728204223095896</v>
+      </c>
+      <c r="NA2">
+        <v>0.4293541501485133</v>
+      </c>
+      <c r="NB2">
+        <v>2.802997992075338</v>
+      </c>
+      <c r="NC2">
+        <v>228.3252350799212</v>
+      </c>
+      <c r="ND2">
+        <v>228.3252350799212</v>
+      </c>
+      <c r="NE2">
+        <v>0.3727103864978899</v>
+      </c>
+      <c r="NF2">
+        <v>0.4326018896010047</v>
+      </c>
+      <c r="NG2">
+        <v>0.3719309777068768</v>
+      </c>
+      <c r="NH2">
+        <v>0.37857989410087</v>
+      </c>
+      <c r="NI2">
+        <v>228.3252350799212</v>
+      </c>
+      <c r="NJ2">
+        <v>0.3697593118467439</v>
+      </c>
+      <c r="NK2">
+        <v>7.26182579935791</v>
+      </c>
+      <c r="NL2">
+        <v>0.3429467043811301</v>
+      </c>
+      <c r="NM2">
+        <v>0.3762859008639882</v>
+      </c>
+      <c r="NN2">
+        <v>3.977855299443719</v>
+      </c>
+      <c r="NO2">
+        <v>229.3252376269045</v>
+      </c>
+      <c r="NP2">
+        <v>0.3842988038503464</v>
+      </c>
+      <c r="NQ2">
+        <v>0.4316372231687525</v>
+      </c>
+      <c r="NR2">
+        <v>18.39293612022575</v>
+      </c>
+      <c r="NS2">
+        <v>0.3502645292171096</v>
+      </c>
+      <c r="NT2">
+        <v>0.338156188855199</v>
+      </c>
+      <c r="NU2">
+        <v>228.3252350799212</v>
+      </c>
+      <c r="NV2">
+        <v>0.3661282179708754</v>
+      </c>
+      <c r="NW2">
+        <v>228.3252350799212</v>
+      </c>
+      <c r="NX2">
+        <v>2.045806431900357</v>
+      </c>
+      <c r="NY2">
+        <v>2.769028863138353</v>
+      </c>
+      <c r="NZ2">
+        <v>0.3772886506356132</v>
+      </c>
+      <c r="OA2">
+        <v>14.49758954310094</v>
+      </c>
+      <c r="OB2">
+        <v>6.637779840779002</v>
+      </c>
+      <c r="OC2">
+        <v>0.3672687266595128</v>
+      </c>
+      <c r="OD2">
+        <v>0.4027405776572239</v>
+      </c>
+      <c r="OE2">
+        <v>270.2618709898046</v>
+      </c>
+      <c r="OF2">
+        <v>0.3416055372152627</v>
+      </c>
+      <c r="OG2">
+        <v>0.3731256152739613</v>
+      </c>
+      <c r="OH2">
+        <v>6.354518111108367</v>
+      </c>
+      <c r="OI2">
+        <v>0.3477084284196093</v>
+      </c>
+      <c r="OJ2">
+        <v>1.562982918471279</v>
+      </c>
+      <c r="OK2">
+        <v>6.662054468386073</v>
       </c>
     </row>
-    <row r="3" spans="1:201">
+    <row r="3" spans="1:401">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="B3">
-        <v>3.333126629399284</v>
+        <v>130.2609044170403</v>
       </c>
       <c r="C3">
-        <v>5.716957852243012</v>
+        <v>247.3036293422008</v>
       </c>
       <c r="D3">
-        <v>0.3334208708446827</v>
+        <v>155.5584080314212</v>
       </c>
       <c r="E3">
-        <v>2.331589184948188</v>
+        <v>155.9047389681079</v>
       </c>
       <c r="F3">
-        <v>4.340460168337273</v>
+        <v>305.5115886152561</v>
       </c>
       <c r="G3">
-        <v>2.32632820697558</v>
+        <v>156.6332438480104</v>
       </c>
       <c r="H3">
-        <v>1.324585156983695</v>
+        <v>108.0940162135668</v>
       </c>
       <c r="I3">
-        <v>2.332330484851227</v>
+        <v>64.347710472529</v>
       </c>
       <c r="J3">
-        <v>8.319064314832751</v>
+        <v>83.68860717549465</v>
       </c>
       <c r="K3">
-        <v>0.3334136807981025</v>
+        <v>51.48736812938197</v>
       </c>
       <c r="L3">
-        <v>0.3333964996612878</v>
+        <v>0.3952494983386671</v>
       </c>
       <c r="M3">
-        <v>0.344204149047697</v>
+        <v>53.28255416525816</v>
       </c>
       <c r="N3">
-        <v>0.3334461342624057</v>
+        <v>14.4325154161073</v>
       </c>
       <c r="O3">
-        <v>5.333130716226989</v>
+        <v>233.4181892564949</v>
       </c>
       <c r="P3">
-        <v>0.3334418815199058</v>
+        <v>0.3758154532577306</v>
       </c>
       <c r="Q3">
-        <v>6.333262932809318</v>
+        <v>122.808399256327</v>
       </c>
       <c r="R3">
-        <v>2.645699562662785</v>
+        <v>0.3603763650995826</v>
       </c>
       <c r="S3">
-        <v>12.37478254184177</v>
+        <v>13.59493048913759</v>
       </c>
       <c r="T3">
-        <v>6.333217692074185</v>
+        <v>0.3767026404401008</v>
       </c>
       <c r="U3">
-        <v>6.339143820547402</v>
+        <v>26.14138980922766</v>
       </c>
       <c r="V3">
-        <v>8.062625440741053</v>
+        <v>199.4137069951711</v>
       </c>
       <c r="W3">
-        <v>3.289749121175491</v>
+        <v>41.41158759524418</v>
       </c>
       <c r="X3">
-        <v>0.3334632083892243</v>
+        <v>84.43837008381097</v>
       </c>
       <c r="Y3">
-        <v>0.3333602534407212</v>
+        <v>85.06160523265895</v>
       </c>
       <c r="Z3">
-        <v>0.3333640203584</v>
+        <v>0.3454561691273534</v>
       </c>
       <c r="AA3">
-        <v>12.11292602815053</v>
+        <v>132.0247541009887</v>
       </c>
       <c r="AB3">
-        <v>1.311681322340875</v>
+        <v>9.17507005858053</v>
       </c>
       <c r="AC3">
-        <v>3.337382076791456</v>
+        <v>84.16010511958318</v>
       </c>
       <c r="AD3">
-        <v>44.69251124199358</v>
+        <v>86.69581847273908</v>
       </c>
       <c r="AE3">
-        <v>14.55317041405686</v>
+        <v>107.4182086937761</v>
       </c>
       <c r="AF3">
-        <v>15.75438816680937</v>
+        <v>249.1906270446193</v>
       </c>
       <c r="AG3">
-        <v>9.346340197367198</v>
+        <v>159.4443134432422</v>
       </c>
       <c r="AH3">
-        <v>0.338202957761071</v>
+        <v>376.6295355201991</v>
       </c>
       <c r="AI3">
-        <v>0.3333796258328829</v>
+        <v>0.3489085779825811</v>
       </c>
       <c r="AJ3">
-        <v>9.344162095400865</v>
+        <v>0.3667981916929984</v>
       </c>
       <c r="AK3">
-        <v>8.319064314832751</v>
+        <v>104.7905888910452</v>
       </c>
       <c r="AL3">
-        <v>0.3333606004514706</v>
+        <v>68.88701736505847</v>
       </c>
       <c r="AM3">
-        <v>0.3916750210865866</v>
+        <v>0.3588825321826648</v>
       </c>
       <c r="AN3">
-        <v>5.320652567256162</v>
+        <v>250.3672533167501</v>
       </c>
       <c r="AO3">
-        <v>29.51087849839792</v>
+        <v>140.8175128522049</v>
       </c>
       <c r="AP3">
-        <v>44.74863401942208</v>
+        <v>181.9314282152817</v>
       </c>
       <c r="AQ3">
-        <v>18.18298529755124</v>
+        <v>63.10190518580622</v>
       </c>
       <c r="AR3">
-        <v>1.315427160952691</v>
+        <v>374.0100728365958</v>
       </c>
       <c r="AS3">
-        <v>2.950005747500525</v>
+        <v>457.7094962259131</v>
       </c>
       <c r="AT3">
-        <v>2.332406900945619</v>
+        <v>0.361298164175009</v>
       </c>
       <c r="AU3">
-        <v>6.628394495759888</v>
+        <v>0.3366534836177002</v>
       </c>
       <c r="AV3">
-        <v>2.33173285534183</v>
+        <v>264.9145321686717</v>
       </c>
       <c r="AW3">
-        <v>0.3503548538138865</v>
+        <v>24.73199213016644</v>
       </c>
       <c r="AX3">
-        <v>1.355494546724562</v>
+        <v>128.4477959171051</v>
       </c>
       <c r="AY3">
-        <v>10.70162706916718</v>
+        <v>232.2496643923277</v>
       </c>
       <c r="AZ3">
-        <v>36.29214210040011</v>
+        <v>263.0460839905647</v>
       </c>
       <c r="BA3">
-        <v>0.3333534663460144</v>
+        <v>1068.485879585555</v>
       </c>
       <c r="BB3">
-        <v>1.353016664908617</v>
+        <v>0.3419343477630607</v>
       </c>
       <c r="BC3">
-        <v>1.314178765490595</v>
+        <v>0.3644050110500587</v>
       </c>
       <c r="BD3">
-        <v>0.3884270822187954</v>
+        <v>0.3366534836177002</v>
       </c>
       <c r="BE3">
-        <v>3.333214748060634</v>
+        <v>0.3366534836177002</v>
       </c>
       <c r="BF3">
-        <v>0.3333761391269352</v>
+        <v>0.3443698954423448</v>
       </c>
       <c r="BG3">
-        <v>3.84798022442213</v>
+        <v>0.3398372678147806</v>
       </c>
       <c r="BH3">
-        <v>13.33497613274609</v>
+        <v>0.347622812079708</v>
       </c>
       <c r="BI3">
-        <v>0.3333715483980647</v>
+        <v>638.8833062018489</v>
       </c>
       <c r="BJ3">
-        <v>0.3333831131980668</v>
+        <v>66.08268906270273</v>
       </c>
       <c r="BK3">
-        <v>4.333232699729693</v>
+        <v>0.3739254376229091</v>
       </c>
       <c r="BL3">
-        <v>0.3702881426243504</v>
+        <v>21.85450832527917</v>
       </c>
       <c r="BM3">
-        <v>0.3333647982230322</v>
+        <v>143.8618979277486</v>
       </c>
       <c r="BN3">
-        <v>4.333232699729693</v>
+        <v>0.3366534836177002</v>
       </c>
       <c r="BO3">
-        <v>3.331972251529672</v>
+        <v>49.6738245808524</v>
       </c>
       <c r="BP3">
-        <v>0.3333992055162294</v>
+        <v>0.3895945626943516</v>
       </c>
       <c r="BQ3">
-        <v>13.34771403172246</v>
+        <v>82.1855824827346</v>
       </c>
       <c r="BR3">
-        <v>11.07358098912365</v>
+        <v>89.9026780391867</v>
       </c>
       <c r="BS3">
-        <v>10.19251054994447</v>
+        <v>390.7240711005291</v>
       </c>
       <c r="BT3">
-        <v>0.3333408264972207</v>
+        <v>0.3595741690829788</v>
       </c>
       <c r="BU3">
-        <v>0.3334178656288185</v>
+        <v>0.3366534836177002</v>
       </c>
       <c r="BV3">
-        <v>45.88564092326479</v>
+        <v>39.64512601262509</v>
       </c>
       <c r="BW3">
-        <v>3.335479248052353</v>
+        <v>34.34370446968286</v>
       </c>
       <c r="BX3">
-        <v>4.333285598023528</v>
+        <v>10.87829230065191</v>
       </c>
       <c r="BY3">
-        <v>2.335069036559599</v>
+        <v>15.43776859863191</v>
       </c>
       <c r="BZ3">
-        <v>3.332866234109905</v>
+        <v>28.68258396688692</v>
       </c>
       <c r="CA3">
-        <v>3.333214748060634</v>
+        <v>0.3671660634135712</v>
       </c>
       <c r="CB3">
-        <v>7.340268731807039</v>
+        <v>0.3673778362756026</v>
       </c>
       <c r="CC3">
-        <v>4.398573912504466</v>
+        <v>56.28645691223936</v>
       </c>
       <c r="CD3">
-        <v>0.3333654013571481</v>
+        <v>70.23953979453559</v>
       </c>
       <c r="CE3">
-        <v>27.5625447423279</v>
+        <v>13.00007895047091</v>
       </c>
       <c r="CF3">
-        <v>0.333382460114628</v>
+        <v>663.4934974034713</v>
       </c>
       <c r="CG3">
-        <v>2.33473612194364</v>
+        <v>294.7587004642766</v>
       </c>
       <c r="CH3">
-        <v>0.3333909452314162</v>
+        <v>86.73633151071742</v>
       </c>
       <c r="CI3">
-        <v>3.333214748060634</v>
+        <v>105.0193551724787</v>
       </c>
       <c r="CJ3">
-        <v>8.319064314832751</v>
+        <v>0.3692864665463307</v>
       </c>
       <c r="CK3">
-        <v>0.3521608225170059</v>
+        <v>0.3536819366697733</v>
       </c>
       <c r="CL3">
-        <v>0.3333647982230322</v>
+        <v>103.8009524241743</v>
       </c>
       <c r="CM3">
-        <v>0.3418094601110768</v>
+        <v>0.3432563911717104</v>
       </c>
       <c r="CN3">
-        <v>0.3493468183969372</v>
+        <v>165.1922567035283</v>
       </c>
       <c r="CO3">
-        <v>0.3373322334345237</v>
+        <v>172.2092041764166</v>
       </c>
       <c r="CP3">
-        <v>8.319064314832751</v>
+        <v>639.5537719496982</v>
       </c>
       <c r="CQ3">
-        <v>4.333002487523895</v>
+        <v>20.75289780629252</v>
       </c>
       <c r="CR3">
-        <v>8.319064314832751</v>
+        <v>71.35177110738982</v>
       </c>
       <c r="CS3">
-        <v>0.3333609385117822</v>
+        <v>0.3469223396380809</v>
       </c>
       <c r="CT3">
-        <v>1.357935724056309</v>
+        <v>35.09486342538683</v>
       </c>
       <c r="CU3">
-        <v>1.37975209163654</v>
+        <v>0.3647072489601574</v>
       </c>
       <c r="CV3">
-        <v>0.3334975326020813</v>
+        <v>0.506280822717603</v>
       </c>
       <c r="CW3">
-        <v>6.323529782933808</v>
+        <v>181.6170255271614</v>
       </c>
       <c r="CX3">
-        <v>0.3333722388477228</v>
+        <v>60.9230707543725</v>
       </c>
       <c r="CY3">
-        <v>0.333372042820529</v>
+        <v>633.5765656853504</v>
       </c>
       <c r="CZ3">
-        <v>7.333257515663376</v>
+        <v>0.3453565544924687</v>
       </c>
       <c r="DA3">
-        <v>3.333142295401525</v>
+        <v>149.8753695077196</v>
       </c>
       <c r="DB3">
-        <v>0.3820714135932096</v>
+        <v>64.555669794382</v>
       </c>
       <c r="DC3">
-        <v>3.333126629399284</v>
+        <v>0.3692458778635949</v>
       </c>
       <c r="DD3">
-        <v>5.342903731375134</v>
+        <v>0.3568769983465259</v>
       </c>
       <c r="DE3">
-        <v>8.319064314832751</v>
+        <v>110.062239356481</v>
       </c>
       <c r="DF3">
-        <v>2.334021158888122</v>
+        <v>93.22874665908803</v>
       </c>
       <c r="DG3">
-        <v>0.4224752876706344</v>
+        <v>0.389579974240186</v>
       </c>
       <c r="DH3">
-        <v>6.554971583548984</v>
+        <v>246.8056685667528</v>
       </c>
       <c r="DI3">
-        <v>7.33329257130047</v>
+        <v>0.3864723553139416</v>
       </c>
       <c r="DJ3">
-        <v>3.333173618756402</v>
+        <v>0.3746435994731301</v>
       </c>
       <c r="DK3">
-        <v>5.209546691021051</v>
+        <v>15.37023939059758</v>
       </c>
       <c r="DL3">
-        <v>8.319064314832751</v>
+        <v>229.2476000712636</v>
       </c>
       <c r="DM3">
-        <v>2.916848212227313</v>
+        <v>233.4969167065809</v>
       </c>
       <c r="DN3">
-        <v>2.334212660560324</v>
+        <v>138.5587102251457</v>
       </c>
       <c r="DO3">
-        <v>0.3334219265578069</v>
+        <v>436.8101713773727</v>
       </c>
       <c r="DP3">
-        <v>3.333231451585649</v>
+        <v>0.3673473640775429</v>
       </c>
       <c r="DQ3">
-        <v>4.33321620084712</v>
+        <v>0.365837623060575</v>
       </c>
       <c r="DR3">
-        <v>0.3417319160289786</v>
+        <v>22.74832953125865</v>
       </c>
       <c r="DS3">
-        <v>0.3391098682770088</v>
+        <v>0.3590055691120727</v>
       </c>
       <c r="DT3">
-        <v>4.337857072562779</v>
+        <v>82.91988252060504</v>
       </c>
       <c r="DU3">
-        <v>0.3820714135932096</v>
+        <v>9.440991905373819</v>
       </c>
       <c r="DV3">
-        <v>0.3462906183534051</v>
+        <v>67.43008716397404</v>
       </c>
       <c r="DW3">
-        <v>4.337089693867195</v>
+        <v>55.18756903677483</v>
       </c>
       <c r="DX3">
-        <v>7.33149055556846</v>
+        <v>21.42255073319894</v>
       </c>
       <c r="DY3">
-        <v>0.3333603932485172</v>
+        <v>53.8807989640398</v>
       </c>
       <c r="DZ3">
-        <v>14.49826256152522</v>
+        <v>73.2231755833302</v>
       </c>
       <c r="EA3">
-        <v>8.319064314832751</v>
+        <v>51.75057777465091</v>
       </c>
       <c r="EB3">
-        <v>5.336064728427139</v>
+        <v>0.3602953529555082</v>
       </c>
       <c r="EC3">
-        <v>0.333383069331833</v>
+        <v>260.4866903128845</v>
       </c>
       <c r="ED3">
-        <v>0.3333882196770618</v>
+        <v>119.0711445887517</v>
       </c>
       <c r="EE3">
-        <v>8.312505880235292</v>
+        <v>143.1378257240759</v>
       </c>
       <c r="EF3">
-        <v>0.3369926012709026</v>
+        <v>0.3732366571781704</v>
       </c>
       <c r="EG3">
-        <v>0.3334116880933471</v>
+        <v>122.4456048847356</v>
       </c>
       <c r="EH3">
-        <v>1.330914471997538</v>
+        <v>26.80530167985859</v>
       </c>
       <c r="EI3">
-        <v>3.333282882368638</v>
+        <v>151.146578386315</v>
       </c>
       <c r="EJ3">
-        <v>0.3334695268874118</v>
+        <v>23.02596495203191</v>
       </c>
       <c r="EK3">
-        <v>6.887867926791462</v>
+        <v>0.8476131483928728</v>
       </c>
       <c r="EL3">
-        <v>0.3333409774508005</v>
+        <v>125.4244949301139</v>
       </c>
       <c r="EM3">
-        <v>3.333175640679982</v>
+        <v>106.5298078535195</v>
       </c>
       <c r="EN3">
-        <v>10.27491309442415</v>
+        <v>42.40838083545938</v>
       </c>
       <c r="EO3">
-        <v>1.333023421129909</v>
+        <v>0.385458638305355</v>
       </c>
       <c r="EP3">
-        <v>0.3883471303951022</v>
+        <v>29.48369274271476</v>
       </c>
       <c r="EQ3">
-        <v>5.333130716226989</v>
+        <v>100.1968088910027</v>
       </c>
       <c r="ER3">
-        <v>1.305044645219497</v>
+        <v>29.55754505637765</v>
       </c>
       <c r="ES3">
-        <v>3.334356265244738</v>
+        <v>121.616816730697</v>
       </c>
       <c r="ET3">
-        <v>0.3333923301584686</v>
+        <v>55.98996237868</v>
       </c>
       <c r="EU3">
-        <v>4.339611315036239</v>
+        <v>64.1580307442256</v>
       </c>
       <c r="EV3">
-        <v>2.334686001843834</v>
+        <v>46.96600859501385</v>
       </c>
       <c r="EW3">
-        <v>7.349839685681553</v>
+        <v>347.8313712368718</v>
       </c>
       <c r="EX3">
-        <v>4.333288744592586</v>
+        <v>40.58816371477715</v>
       </c>
       <c r="EY3">
-        <v>2.329478186082165</v>
+        <v>161.9391368574011</v>
       </c>
       <c r="EZ3">
-        <v>1.514753154498667</v>
+        <v>0.3512240506691928</v>
       </c>
       <c r="FA3">
-        <v>1.33160576109645</v>
+        <v>40.08831980520583</v>
       </c>
       <c r="FB3">
-        <v>1.332486774414756</v>
+        <v>0.3545814263096271</v>
       </c>
       <c r="FC3">
-        <v>1.330237276999833</v>
+        <v>94.40881778099242</v>
       </c>
       <c r="FD3">
-        <v>1.330425928621505</v>
+        <v>86.62625501887979</v>
       </c>
       <c r="FE3">
-        <v>2.330289764892576</v>
+        <v>167.925057923046</v>
       </c>
       <c r="FF3">
-        <v>7.505877134236648</v>
+        <v>158.1569857424269</v>
       </c>
       <c r="FG3">
-        <v>0.3333747757955214</v>
+        <v>31.4459810753492</v>
       </c>
       <c r="FH3">
-        <v>2.323990719024875</v>
+        <v>121.7843228744023</v>
       </c>
       <c r="FI3">
-        <v>3.333214748060634</v>
+        <v>4.33703989695179</v>
       </c>
       <c r="FJ3">
-        <v>0.3333923301584686</v>
+        <v>48.1834321878632</v>
       </c>
       <c r="FK3">
-        <v>1.373118451688239</v>
+        <v>0.3742541003717543</v>
       </c>
       <c r="FL3">
-        <v>2.336281321232308</v>
+        <v>206.5458126434334</v>
       </c>
       <c r="FM3">
-        <v>0.3334337749930715</v>
+        <v>0.3781568556315745</v>
       </c>
       <c r="FN3">
-        <v>2.332406900945619</v>
+        <v>0.3571118099108168</v>
       </c>
       <c r="FO3">
-        <v>1.846319982214018</v>
+        <v>6.941859109196423</v>
       </c>
       <c r="FP3">
-        <v>4.332325860783216</v>
+        <v>0.3850316530482411</v>
       </c>
       <c r="FQ3">
-        <v>3.333173618756402</v>
+        <v>133.0123371126473</v>
       </c>
       <c r="FR3">
-        <v>8.319064314832751</v>
+        <v>17.47111168273803</v>
       </c>
       <c r="FS3">
-        <v>8.319064314832751</v>
+        <v>202.9089101574762</v>
       </c>
       <c r="FT3">
-        <v>5.333279714925355</v>
+        <v>41.99502697552156</v>
       </c>
       <c r="FU3">
-        <v>4.942602648899182</v>
+        <v>337.3588903577335</v>
       </c>
       <c r="FV3">
-        <v>0.3333907328399374</v>
+        <v>0.3848881948946196</v>
       </c>
       <c r="FW3">
-        <v>0.3448087580718557</v>
+        <v>468.8379780337922</v>
       </c>
       <c r="FX3">
-        <v>3.333231451585649</v>
+        <v>125.8318530889936</v>
       </c>
       <c r="FY3">
-        <v>0.3333994263389837</v>
+        <v>85.77126481664112</v>
       </c>
       <c r="FZ3">
-        <v>3.333214748060634</v>
+        <v>181.7275926316427</v>
       </c>
       <c r="GA3">
-        <v>3.333282882368638</v>
+        <v>89.90520874411047</v>
       </c>
       <c r="GB3">
-        <v>2.334021158888122</v>
+        <v>215.2887011146416</v>
       </c>
       <c r="GC3">
-        <v>12.31789754961333</v>
+        <v>163.0635418377085</v>
       </c>
       <c r="GD3">
-        <v>1.331448344414193</v>
+        <v>12.9108820641596</v>
       </c>
       <c r="GE3">
-        <v>2.575928167194607</v>
+        <v>74.33026536326018</v>
       </c>
       <c r="GF3">
-        <v>7.506916802198631</v>
+        <v>19.05059914619204</v>
       </c>
       <c r="GG3">
-        <v>12.79178567779059</v>
+        <v>80.10797887552106</v>
       </c>
       <c r="GH3">
-        <v>0.3362140564215816</v>
+        <v>138.5456892824892</v>
       </c>
       <c r="GI3">
-        <v>2.332080209890505</v>
+        <v>314.1236465967676</v>
       </c>
       <c r="GJ3">
-        <v>1.332680083771935</v>
+        <v>0.3366534836177002</v>
       </c>
       <c r="GK3">
-        <v>13.31723003099382</v>
+        <v>87.01839644856888</v>
       </c>
       <c r="GL3">
-        <v>4.16841686928549</v>
+        <v>160.193469434309</v>
       </c>
       <c r="GM3">
-        <v>0.3333408264972207</v>
+        <v>0.3879648958002671</v>
       </c>
       <c r="GN3">
-        <v>6.33382843990873</v>
+        <v>0.3880528609322469</v>
       </c>
       <c r="GO3">
-        <v>5.318927215709532</v>
+        <v>0.3366534836177002</v>
       </c>
       <c r="GP3">
-        <v>0.3333911337962605</v>
+        <v>0.3366534836177002</v>
       </c>
       <c r="GQ3">
-        <v>5.305691359115237</v>
+        <v>182.4595067814094</v>
       </c>
       <c r="GR3">
-        <v>1.332690941210608</v>
+        <v>153.7613366908237</v>
       </c>
       <c r="GS3">
-        <v>0.333378029418226</v>
+        <v>472.1672241024771</v>
+      </c>
+      <c r="GT3">
+        <v>180.8170010553681</v>
+      </c>
+      <c r="GU3">
+        <v>0.3667071673340666</v>
+      </c>
+      <c r="GV3">
+        <v>106.8027280720374</v>
+      </c>
+      <c r="GW3">
+        <v>18.58706659052891</v>
+      </c>
+      <c r="GX3">
+        <v>196.9082466844123</v>
+      </c>
+      <c r="GY3">
+        <v>45.64919347368842</v>
+      </c>
+      <c r="GZ3">
+        <v>39.85785236257768</v>
+      </c>
+      <c r="HA3">
+        <v>296.9673843782385</v>
+      </c>
+      <c r="HB3">
+        <v>62.74342338129601</v>
+      </c>
+      <c r="HC3">
+        <v>384.8405794802931</v>
+      </c>
+      <c r="HD3">
+        <v>0.3794169549075149</v>
+      </c>
+      <c r="HE3">
+        <v>25.58066869594211</v>
+      </c>
+      <c r="HF3">
+        <v>476.6642582175635</v>
+      </c>
+      <c r="HG3">
+        <v>61.92793802986179</v>
+      </c>
+      <c r="HH3">
+        <v>346.9663032182477</v>
+      </c>
+      <c r="HI3">
+        <v>0.3453726995551488</v>
+      </c>
+      <c r="HJ3">
+        <v>132.7253733356356</v>
+      </c>
+      <c r="HK3">
+        <v>72.85059176904477</v>
+      </c>
+      <c r="HL3">
+        <v>19.28799337941943</v>
+      </c>
+      <c r="HM3">
+        <v>34.06064673288923</v>
+      </c>
+      <c r="HN3">
+        <v>0.3366534836177002</v>
+      </c>
+      <c r="HO3">
+        <v>218.0094290027635</v>
+      </c>
+      <c r="HP3">
+        <v>145.4568312770812</v>
+      </c>
+      <c r="HQ3">
+        <v>135.413634061235</v>
+      </c>
+      <c r="HR3">
+        <v>287.5440447429133</v>
+      </c>
+      <c r="HS3">
+        <v>152.0887607469702</v>
+      </c>
+      <c r="HT3">
+        <v>29.9649208139975</v>
+      </c>
+      <c r="HU3">
+        <v>305.6501732869235</v>
+      </c>
+      <c r="HV3">
+        <v>0.385118063681932</v>
+      </c>
+      <c r="HW3">
+        <v>289.0646038488437</v>
+      </c>
+      <c r="HX3">
+        <v>55.80689129056508</v>
+      </c>
+      <c r="HY3">
+        <v>0.355832807770451</v>
+      </c>
+      <c r="HZ3">
+        <v>0.3672322578974231</v>
+      </c>
+      <c r="IA3">
+        <v>146.0883682190842</v>
+      </c>
+      <c r="IB3">
+        <v>403.8835484527538</v>
+      </c>
+      <c r="IC3">
+        <v>712.6816419262215</v>
+      </c>
+      <c r="ID3">
+        <v>0.356711656406269</v>
+      </c>
+      <c r="IE3">
+        <v>313.413038096721</v>
+      </c>
+      <c r="IF3">
+        <v>0.3366534836177002</v>
+      </c>
+      <c r="IG3">
+        <v>97.76484347096272</v>
+      </c>
+      <c r="IH3">
+        <v>42.28025187623332</v>
+      </c>
+      <c r="II3">
+        <v>315.1009518430869</v>
+      </c>
+      <c r="IJ3">
+        <v>0.3366534836177002</v>
+      </c>
+      <c r="IK3">
+        <v>80.3010554857261</v>
+      </c>
+      <c r="IL3">
+        <v>0.3836330628900212</v>
+      </c>
+      <c r="IM3">
+        <v>17.10236705518184</v>
+      </c>
+      <c r="IN3">
+        <v>27.56297771332105</v>
+      </c>
+      <c r="IO3">
+        <v>0.3515219891349365</v>
+      </c>
+      <c r="IP3">
+        <v>0.3545534933438215</v>
+      </c>
+      <c r="IQ3">
+        <v>0.3596439129647377</v>
+      </c>
+      <c r="IR3">
+        <v>44.81663436869576</v>
+      </c>
+      <c r="IS3">
+        <v>40.2711762957906</v>
+      </c>
+      <c r="IT3">
+        <v>52.40222217721464</v>
+      </c>
+      <c r="IU3">
+        <v>700.6264922880365</v>
+      </c>
+      <c r="IV3">
+        <v>0.3366534836177002</v>
+      </c>
+      <c r="IW3">
+        <v>0.3421091392329871</v>
+      </c>
+      <c r="IX3">
+        <v>0.3366534836177002</v>
+      </c>
+      <c r="IY3">
+        <v>76.63031471842683</v>
+      </c>
+      <c r="IZ3">
+        <v>0.3895945626943516</v>
+      </c>
+      <c r="JA3">
+        <v>70.00421298837375</v>
+      </c>
+      <c r="JB3">
+        <v>27.15618253306405</v>
+      </c>
+      <c r="JC3">
+        <v>26.22409221946049</v>
+      </c>
+      <c r="JD3">
+        <v>77.63635311909137</v>
+      </c>
+      <c r="JE3">
+        <v>1044.597852972762</v>
+      </c>
+      <c r="JF3">
+        <v>0.3402190786034551</v>
+      </c>
+      <c r="JG3">
+        <v>135.619598991801</v>
+      </c>
+      <c r="JH3">
+        <v>80.15438385285266</v>
+      </c>
+      <c r="JI3">
+        <v>31.8631056727886</v>
+      </c>
+      <c r="JJ3">
+        <v>16.01994207654179</v>
+      </c>
+      <c r="JK3">
+        <v>0.3848412813599396</v>
+      </c>
+      <c r="JL3">
+        <v>0.3406375416448828</v>
+      </c>
+      <c r="JM3">
+        <v>580.2999596119524</v>
+      </c>
+      <c r="JN3">
+        <v>0.3366534836177002</v>
+      </c>
+      <c r="JO3">
+        <v>107.5148614489042</v>
+      </c>
+      <c r="JP3">
+        <v>218.4088015413513</v>
+      </c>
+      <c r="JQ3">
+        <v>49.87537824971217</v>
+      </c>
+      <c r="JR3">
+        <v>72.96541290734002</v>
+      </c>
+      <c r="JS3">
+        <v>220.7893708377381</v>
+      </c>
+      <c r="JT3">
+        <v>178.3583719902926</v>
+      </c>
+      <c r="JU3">
+        <v>371.963262223245</v>
+      </c>
+      <c r="JV3">
+        <v>0.3783873176691914</v>
+      </c>
+      <c r="JW3">
+        <v>200.7234873521876</v>
+      </c>
+      <c r="JX3">
+        <v>16.73036808153032</v>
+      </c>
+      <c r="JY3">
+        <v>96.01292740189837</v>
+      </c>
+      <c r="JZ3">
+        <v>170.6025852264795</v>
+      </c>
+      <c r="KA3">
+        <v>490.2456461644359</v>
+      </c>
+      <c r="KB3">
+        <v>0.3859341372852966</v>
+      </c>
+      <c r="KC3">
+        <v>439.1567765720653</v>
+      </c>
+      <c r="KD3">
+        <v>136.3480914957892</v>
+      </c>
+      <c r="KE3">
+        <v>134.7795114491509</v>
+      </c>
+      <c r="KF3">
+        <v>97.75851352625629</v>
+      </c>
+      <c r="KG3">
+        <v>69.9909601159498</v>
+      </c>
+      <c r="KH3">
+        <v>42.23864236465442</v>
+      </c>
+      <c r="KI3">
+        <v>0.3567440072224268</v>
+      </c>
+      <c r="KJ3">
+        <v>0.3643779134103345</v>
+      </c>
+      <c r="KK3">
+        <v>628.3472272875312</v>
+      </c>
+      <c r="KL3">
+        <v>6.243056313081626</v>
+      </c>
+      <c r="KM3">
+        <v>0.3762892800094867</v>
+      </c>
+      <c r="KN3">
+        <v>0.3366534836177002</v>
+      </c>
+      <c r="KO3">
+        <v>115.3731903052191</v>
+      </c>
+      <c r="KP3">
+        <v>354.8433115383954</v>
+      </c>
+      <c r="KQ3">
+        <v>100.6916295278945</v>
+      </c>
+      <c r="KR3">
+        <v>53.65650227657213</v>
+      </c>
+      <c r="KS3">
+        <v>8.425472751907296</v>
+      </c>
+      <c r="KT3">
+        <v>140.6728873384703</v>
+      </c>
+      <c r="KU3">
+        <v>114.5039529239894</v>
+      </c>
+      <c r="KV3">
+        <v>0.3773135622917106</v>
+      </c>
+      <c r="KW3">
+        <v>349.9213159132486</v>
+      </c>
+      <c r="KX3">
+        <v>187.6908932020006</v>
+      </c>
+      <c r="KY3">
+        <v>14.69570802221059</v>
+      </c>
+      <c r="KZ3">
+        <v>79.23707357236624</v>
+      </c>
+      <c r="LA3">
+        <v>48.90477549615273</v>
+      </c>
+      <c r="LB3">
+        <v>169.4943453965412</v>
+      </c>
+      <c r="LC3">
+        <v>28.19291416845494</v>
+      </c>
+      <c r="LD3">
+        <v>0.3819555372342936</v>
+      </c>
+      <c r="LE3">
+        <v>94.93906916081322</v>
+      </c>
+      <c r="LF3">
+        <v>103.4082520070976</v>
+      </c>
+      <c r="LG3">
+        <v>444.9265762125559</v>
+      </c>
+      <c r="LH3">
+        <v>27.06802560392797</v>
+      </c>
+      <c r="LI3">
+        <v>426.7214994494317</v>
+      </c>
+      <c r="LJ3">
+        <v>83.57671420246679</v>
+      </c>
+      <c r="LK3">
+        <v>132.9908163116509</v>
+      </c>
+      <c r="LL3">
+        <v>10.25251217688652</v>
+      </c>
+      <c r="LM3">
+        <v>80.5530664638821</v>
+      </c>
+      <c r="LN3">
+        <v>0.3844158387863713</v>
+      </c>
+      <c r="LO3">
+        <v>233.1775775696489</v>
+      </c>
+      <c r="LP3">
+        <v>147.1029410541628</v>
+      </c>
+      <c r="LQ3">
+        <v>256.7322823511734</v>
+      </c>
+      <c r="LR3">
+        <v>107.8007546332929</v>
+      </c>
+      <c r="LS3">
+        <v>134.6505612468463</v>
+      </c>
+      <c r="LT3">
+        <v>357.2513640980096</v>
+      </c>
+      <c r="LU3">
+        <v>184.4793422610678</v>
+      </c>
+      <c r="LV3">
+        <v>0.3366534836177002</v>
+      </c>
+      <c r="LW3">
+        <v>170.5557594212144</v>
+      </c>
+      <c r="LX3">
+        <v>9.215392076397173</v>
+      </c>
+      <c r="LY3">
+        <v>0.3574151139363327</v>
+      </c>
+      <c r="LZ3">
+        <v>456.112588581783</v>
+      </c>
+      <c r="MA3">
+        <v>0.3796158571339415</v>
+      </c>
+      <c r="MB3">
+        <v>85.72504510374492</v>
+      </c>
+      <c r="MC3">
+        <v>12.96165703922468</v>
+      </c>
+      <c r="MD3">
+        <v>0.3726167769365971</v>
+      </c>
+      <c r="ME3">
+        <v>47.16492828940196</v>
+      </c>
+      <c r="MF3">
+        <v>0.3387959891418973</v>
+      </c>
+      <c r="MG3">
+        <v>0.3434065301699994</v>
+      </c>
+      <c r="MH3">
+        <v>106.2844030788383</v>
+      </c>
+      <c r="MI3">
+        <v>17.92582365973879</v>
+      </c>
+      <c r="MJ3">
+        <v>0.3811940798175345</v>
+      </c>
+      <c r="MK3">
+        <v>145.4476636864376</v>
+      </c>
+      <c r="ML3">
+        <v>0.3533824266742247</v>
+      </c>
+      <c r="MM3">
+        <v>133.8086017123007</v>
+      </c>
+      <c r="MN3">
+        <v>11.99782845339475</v>
+      </c>
+      <c r="MO3">
+        <v>65.11327152187486</v>
+      </c>
+      <c r="MP3">
+        <v>130.715632890945</v>
+      </c>
+      <c r="MQ3">
+        <v>45.08487493217401</v>
+      </c>
+      <c r="MR3">
+        <v>33.00361053782615</v>
+      </c>
+      <c r="MS3">
+        <v>189.9104284339597</v>
+      </c>
+      <c r="MT3">
+        <v>9.863099261811906</v>
+      </c>
+      <c r="MU3">
+        <v>0.3645856642875016</v>
+      </c>
+      <c r="MV3">
+        <v>376.7443347652022</v>
+      </c>
+      <c r="MW3">
+        <v>316.6111616941634</v>
+      </c>
+      <c r="MX3">
+        <v>34.39989889099667</v>
+      </c>
+      <c r="MY3">
+        <v>335.949196270704</v>
+      </c>
+      <c r="MZ3">
+        <v>11.90016483697407</v>
+      </c>
+      <c r="NA3">
+        <v>190.8980436167311</v>
+      </c>
+      <c r="NB3">
+        <v>143.534997397817</v>
+      </c>
+      <c r="NC3">
+        <v>0.3366534836177002</v>
+      </c>
+      <c r="ND3">
+        <v>0.3366534836177002</v>
+      </c>
+      <c r="NE3">
+        <v>101.8368439424234</v>
+      </c>
+      <c r="NF3">
+        <v>66.65367062617484</v>
+      </c>
+      <c r="NG3">
+        <v>0.3777215155792537</v>
+      </c>
+      <c r="NH3">
+        <v>176.3342778364714</v>
+      </c>
+      <c r="NI3">
+        <v>0.3366534836177002</v>
+      </c>
+      <c r="NJ3">
+        <v>126.0939565959559</v>
+      </c>
+      <c r="NK3">
+        <v>113.925470885886</v>
+      </c>
+      <c r="NL3">
+        <v>19.21167995224146</v>
+      </c>
+      <c r="NM3">
+        <v>102.6461214781769</v>
+      </c>
+      <c r="NN3">
+        <v>46.2823252931782</v>
+      </c>
+      <c r="NO3">
+        <v>0.3366726800543992</v>
+      </c>
+      <c r="NP3">
+        <v>103.3948045647972</v>
+      </c>
+      <c r="NQ3">
+        <v>0.3557265384030875</v>
+      </c>
+      <c r="NR3">
+        <v>515.0261998035509</v>
+      </c>
+      <c r="NS3">
+        <v>41.32333846379593</v>
+      </c>
+      <c r="NT3">
+        <v>0.3445269331840302</v>
+      </c>
+      <c r="NU3">
+        <v>0.3366534836177002</v>
+      </c>
+      <c r="NV3">
+        <v>1.266910999236913</v>
+      </c>
+      <c r="NW3">
+        <v>0.3366534836177002</v>
+      </c>
+      <c r="NX3">
+        <v>107.5087859639279</v>
+      </c>
+      <c r="NY3">
+        <v>146.0811456682571</v>
+      </c>
+      <c r="NZ3">
+        <v>0.3666224968356507</v>
+      </c>
+      <c r="OA3">
+        <v>121.318637633532</v>
+      </c>
+      <c r="OB3">
+        <v>74.97283210046285</v>
+      </c>
+      <c r="OC3">
+        <v>97.13221064320904</v>
+      </c>
+      <c r="OD3">
+        <v>24.96279563431472</v>
+      </c>
+      <c r="OE3">
+        <v>0.3725648376828978</v>
+      </c>
+      <c r="OF3">
+        <v>0.3381608325358688</v>
+      </c>
+      <c r="OG3">
+        <v>64.63439702561435</v>
+      </c>
+      <c r="OH3">
+        <v>60.94206779984742</v>
+      </c>
+      <c r="OI3">
+        <v>0.3447869464535293</v>
+      </c>
+      <c r="OJ3">
+        <v>55.4411609835534</v>
+      </c>
+      <c r="OK3">
+        <v>0.3619232746204499</v>
       </c>
     </row>
-    <row r="4" spans="1:201">
+    <row r="4" spans="1:401">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="B4">
-        <v>0.3333962691645476</v>
+        <v>65.69372915200201</v>
       </c>
       <c r="C4">
-        <v>2.526947439917082</v>
+        <v>101.9856102586245</v>
       </c>
       <c r="D4">
-        <v>3.322907006802526</v>
+        <v>196.3957706657196</v>
       </c>
       <c r="E4">
-        <v>3.334948587354659</v>
+        <v>89.37346131559762</v>
       </c>
       <c r="F4">
-        <v>2.329399008157733</v>
+        <v>148.6636401129768</v>
       </c>
       <c r="G4">
-        <v>5.340109106584127</v>
+        <v>106.5206501844756</v>
       </c>
       <c r="H4">
-        <v>2.323995993482694</v>
+        <v>149.4616865395763</v>
       </c>
       <c r="I4">
-        <v>0.3461639864608245</v>
+        <v>56.12046380566106</v>
       </c>
       <c r="J4">
-        <v>0.3453820648522887</v>
+        <v>145.901381077995</v>
       </c>
       <c r="K4">
-        <v>5.301126467328467</v>
+        <v>76.21782586116962</v>
       </c>
       <c r="L4">
-        <v>9.964595561961842</v>
+        <v>103.2531331389962</v>
       </c>
       <c r="M4">
-        <v>5.603743054906469</v>
+        <v>111.3514063319172</v>
       </c>
       <c r="N4">
-        <v>9.290523691973899</v>
+        <v>52.22775973252881</v>
       </c>
       <c r="O4">
-        <v>0.3333950255255284</v>
+        <v>53.02762086212281</v>
       </c>
       <c r="P4">
-        <v>6.300087496556714</v>
+        <v>34.27338856409926</v>
       </c>
       <c r="Q4">
-        <v>0.3333524227758533</v>
+        <v>93.49488399740581</v>
       </c>
       <c r="R4">
-        <v>4.020807102360509</v>
+        <v>94.28719558786615</v>
       </c>
       <c r="S4">
-        <v>4.291595579254806</v>
+        <v>61.23674730807611</v>
       </c>
       <c r="T4">
-        <v>0.3333747743422527</v>
+        <v>0.3561601034314423</v>
       </c>
       <c r="U4">
-        <v>0.3334039162991941</v>
+        <v>61.26172687811024</v>
       </c>
       <c r="V4">
-        <v>3.579499008422618</v>
+        <v>52.18286081497327</v>
       </c>
       <c r="W4">
-        <v>0.3768196501177651</v>
+        <v>87.20354668792133</v>
       </c>
       <c r="X4">
-        <v>6.338874674350787</v>
+        <v>90.64641381484597</v>
       </c>
       <c r="Y4">
-        <v>6.333256644402775</v>
+        <v>66.58107752984897</v>
       </c>
       <c r="Z4">
-        <v>0.3440142338570438</v>
+        <v>32.31539978440863</v>
       </c>
       <c r="AA4">
-        <v>0.3523307754282562</v>
+        <v>148.3140102658709</v>
       </c>
       <c r="AB4">
-        <v>6.354676151536313</v>
+        <v>60.47811920243694</v>
       </c>
       <c r="AC4">
-        <v>2.330630256146334</v>
+        <v>45.4269630242551</v>
       </c>
       <c r="AD4">
-        <v>42.3722053618359</v>
+        <v>22.91972853584512</v>
       </c>
       <c r="AE4">
-        <v>5.536265984916025</v>
+        <v>26.21418858798442</v>
       </c>
       <c r="AF4">
-        <v>19.71863126254209</v>
+        <v>102.8204293459688</v>
       </c>
       <c r="AG4">
-        <v>0.3905314107804937</v>
+        <v>24.42131495968933</v>
       </c>
       <c r="AH4">
-        <v>10.32558063409664</v>
+        <v>119.6364651679374</v>
       </c>
       <c r="AI4">
-        <v>10.33319738745544</v>
+        <v>129.3032164978567</v>
       </c>
       <c r="AJ4">
-        <v>1.322349071493802</v>
+        <v>64.28374288628267</v>
       </c>
       <c r="AK4">
-        <v>0.3453820648522887</v>
+        <v>156.3816084736125</v>
       </c>
       <c r="AL4">
-        <v>4.333255655702291</v>
+        <v>13.77177306094451</v>
       </c>
       <c r="AM4">
-        <v>9.274776681667053</v>
+        <v>172.9412771813876</v>
       </c>
       <c r="AN4">
-        <v>3.565098944858211</v>
+        <v>75.98654709061317</v>
       </c>
       <c r="AO4">
-        <v>3.152238754623017</v>
+        <v>111.4780864325236</v>
       </c>
       <c r="AP4">
-        <v>49.91466502352186</v>
+        <v>218.521630845011</v>
       </c>
       <c r="AQ4">
-        <v>21.06005189550352</v>
+        <v>40.02758623749531</v>
       </c>
       <c r="AR4">
-        <v>3.864182053055311</v>
+        <v>73.42694628011265</v>
       </c>
       <c r="AS4">
-        <v>11.71490522819301</v>
+        <v>142.1204383278776</v>
       </c>
       <c r="AT4">
-        <v>0.3333521800173656</v>
+        <v>35.30077906649269</v>
       </c>
       <c r="AU4">
-        <v>5.018340502807492</v>
+        <v>0.3381114364578149</v>
       </c>
       <c r="AV4">
-        <v>0.3333520617784105</v>
+        <v>111.8474824263342</v>
       </c>
       <c r="AW4">
-        <v>11.33236404866315</v>
+        <v>73.29256526393135</v>
       </c>
       <c r="AX4">
-        <v>17.30619588537295</v>
+        <v>76.16172607288844</v>
       </c>
       <c r="AY4">
-        <v>13.71956300707397</v>
+        <v>177.6913260652166</v>
       </c>
       <c r="AZ4">
-        <v>3.37223613326035</v>
+        <v>151.5740042826615</v>
       </c>
       <c r="BA4">
-        <v>0.342040245368112</v>
+        <v>332.7981828603445</v>
       </c>
       <c r="BB4">
-        <v>7.957842663540974</v>
+        <v>34.27071449906598</v>
       </c>
       <c r="BC4">
-        <v>0.3333889697355252</v>
+        <v>0.4040222686031734</v>
       </c>
       <c r="BD4">
-        <v>7.280160754600242</v>
+        <v>0.3381114364578149</v>
       </c>
       <c r="BE4">
-        <v>0.3333758291243089</v>
+        <v>0.3381114364578149</v>
       </c>
       <c r="BF4">
-        <v>4.333215689130714</v>
+        <v>1.332810764262883</v>
       </c>
       <c r="BG4">
-        <v>43.80022009179859</v>
+        <v>31.32003194424594</v>
       </c>
       <c r="BH4">
-        <v>0.3373003797810672</v>
+        <v>38.29252526486766</v>
       </c>
       <c r="BI4">
-        <v>5.333238657754703</v>
+        <v>324.528764886432</v>
       </c>
       <c r="BJ4">
-        <v>6.333189991929145</v>
+        <v>52.57124629503833</v>
       </c>
       <c r="BK4">
-        <v>0.3333581389476529</v>
+        <v>132.2563960820546</v>
       </c>
       <c r="BL4">
-        <v>6.296215004822227</v>
+        <v>62.77425048613261</v>
       </c>
       <c r="BM4">
-        <v>4.333225798455071</v>
+        <v>43.76389222373015</v>
       </c>
       <c r="BN4">
-        <v>0.3333581389476529</v>
+        <v>0.3381114364578149</v>
       </c>
       <c r="BO4">
-        <v>1.320245812907645</v>
+        <v>86.87261760773993</v>
       </c>
       <c r="BP4">
-        <v>5.326932063020769</v>
+        <v>40.27591020090836</v>
       </c>
       <c r="BQ4">
-        <v>0.3333912588486709</v>
+        <v>161.3858776359196</v>
       </c>
       <c r="BR4">
-        <v>4.575485808782805</v>
+        <v>132.9533029748859</v>
       </c>
       <c r="BS4">
-        <v>0.3479932664827042</v>
+        <v>221.3774122758907</v>
       </c>
       <c r="BT4">
-        <v>0.3333383061342998</v>
+        <v>106.2688850031758</v>
       </c>
       <c r="BU4">
-        <v>3.333164941657048</v>
+        <v>0.3381114364578149</v>
       </c>
       <c r="BV4">
-        <v>8.362065751643701</v>
+        <v>67.02269529412042</v>
       </c>
       <c r="BW4">
-        <v>1.327902906387413</v>
+        <v>130.3069533849887</v>
       </c>
       <c r="BX4">
-        <v>0.3333469108130918</v>
+        <v>41.75619998671333</v>
       </c>
       <c r="BY4">
-        <v>2.331477257571098</v>
+        <v>53.21050262162699</v>
       </c>
       <c r="BZ4">
-        <v>0.333360444199898</v>
+        <v>63.94379403307639</v>
       </c>
       <c r="CA4">
-        <v>0.3333758291243089</v>
+        <v>74.29466451477306</v>
       </c>
       <c r="CB4">
-        <v>0.3333914893683723</v>
+        <v>42.28424998841169</v>
       </c>
       <c r="CC4">
-        <v>6.267982986225152</v>
+        <v>125.3084838768543</v>
       </c>
       <c r="CD4">
-        <v>0.3391604324211112</v>
+        <v>92.3879773552697</v>
       </c>
       <c r="CE4">
-        <v>5.10376694005556</v>
+        <v>36.19177906695523</v>
       </c>
       <c r="CF4">
-        <v>0.3333641513192081</v>
+        <v>179.1276842112236</v>
       </c>
       <c r="CG4">
-        <v>1.329133093718152</v>
+        <v>187.8195659527047</v>
       </c>
       <c r="CH4">
-        <v>0.366698302118563</v>
+        <v>416.8667472648322</v>
       </c>
       <c r="CI4">
-        <v>0.3333758291243089</v>
+        <v>134.8444119353136</v>
       </c>
       <c r="CJ4">
-        <v>0.3453820648522887</v>
+        <v>92.23710257160141</v>
       </c>
       <c r="CK4">
-        <v>3.314434402146068</v>
+        <v>83.58842246233233</v>
       </c>
       <c r="CL4">
-        <v>4.333225798455071</v>
+        <v>54.31585001838474</v>
       </c>
       <c r="CM4">
-        <v>7.306537080035593</v>
+        <v>58.30976381007292</v>
       </c>
       <c r="CN4">
-        <v>5.292400519853597</v>
+        <v>137.435545473561</v>
       </c>
       <c r="CO4">
-        <v>0.3478342805975583</v>
+        <v>66.71594382230948</v>
       </c>
       <c r="CP4">
-        <v>0.3453820648522887</v>
+        <v>87.06159265120895</v>
       </c>
       <c r="CQ4">
-        <v>0.3413470026277576</v>
+        <v>48.85614716323229</v>
       </c>
       <c r="CR4">
-        <v>0.3453820648522887</v>
+        <v>62.27794024464952</v>
       </c>
       <c r="CS4">
-        <v>3.333254692499652</v>
+        <v>21.31314977930579</v>
       </c>
       <c r="CT4">
-        <v>19.06080102612772</v>
+        <v>51.05130531734402</v>
       </c>
       <c r="CU4">
-        <v>18.26876380273146</v>
+        <v>127.8163920308453</v>
       </c>
       <c r="CV4">
-        <v>5.33295544273619</v>
+        <v>38.12987285946023</v>
       </c>
       <c r="CW4">
-        <v>0.3513558951726974</v>
+        <v>45.84177265430825</v>
       </c>
       <c r="CX4">
-        <v>0.3333700088649078</v>
+        <v>107.4007066545186</v>
       </c>
       <c r="CY4">
-        <v>0.3333698240777846</v>
+        <v>325.7132956921096</v>
       </c>
       <c r="CZ4">
-        <v>0.3333545285359369</v>
+        <v>86.31003685358228</v>
       </c>
       <c r="DA4">
-        <v>0.3333908690017739</v>
+        <v>34.62787372088272</v>
       </c>
       <c r="DB4">
-        <v>3.284503186156293</v>
+        <v>95.99344950309499</v>
       </c>
       <c r="DC4">
-        <v>0.3333962691645476</v>
+        <v>57.55042534056393</v>
       </c>
       <c r="DD4">
-        <v>1.321830230772679</v>
+        <v>104.2716022063944</v>
       </c>
       <c r="DE4">
-        <v>0.3453820648522887</v>
+        <v>82.16532880574724</v>
       </c>
       <c r="DF4">
-        <v>0.3333927684991318</v>
+        <v>18.13237430487822</v>
       </c>
       <c r="DG4">
-        <v>3.244026723826562</v>
+        <v>53.26360720389736</v>
       </c>
       <c r="DH4">
-        <v>2.881738482716648</v>
+        <v>81.91501021465123</v>
       </c>
       <c r="DI4">
-        <v>0.3333463004203502</v>
+        <v>32.23496971380487</v>
       </c>
       <c r="DJ4">
-        <v>0.3333800706224698</v>
+        <v>33.28622980861194</v>
       </c>
       <c r="DK4">
-        <v>2.219550852885719</v>
+        <v>38.27817599271374</v>
       </c>
       <c r="DL4">
-        <v>0.3453820648522887</v>
+        <v>316.1875513891986</v>
       </c>
       <c r="DM4">
-        <v>1.749610237419194</v>
+        <v>245.2545639982386</v>
       </c>
       <c r="DN4">
-        <v>0.3334244996373421</v>
+        <v>65.48431504342751</v>
       </c>
       <c r="DO4">
-        <v>6.332993109244822</v>
+        <v>211.0781676939156</v>
       </c>
       <c r="DP4">
-        <v>0.3333584464868015</v>
+        <v>11.72735999407229</v>
       </c>
       <c r="DQ4">
-        <v>0.3333753086209575</v>
+        <v>36.27256762034257</v>
       </c>
       <c r="DR4">
-        <v>6.324861717926956</v>
+        <v>53.27988447077574</v>
       </c>
       <c r="DS4">
-        <v>11.31622772572907</v>
+        <v>30.29947423118525</v>
       </c>
       <c r="DT4">
-        <v>2.277837507413509</v>
+        <v>57.64669721760197</v>
       </c>
       <c r="DU4">
-        <v>3.284503186156293</v>
+        <v>95.15834629132118</v>
       </c>
       <c r="DV4">
-        <v>11.275139218553</v>
+        <v>88.21296519173794</v>
       </c>
       <c r="DW4">
-        <v>1.329445865022643</v>
+        <v>46.4608115030986</v>
       </c>
       <c r="DX4">
-        <v>0.3351311786306413</v>
+        <v>170.2078981210405</v>
       </c>
       <c r="DY4">
-        <v>5.333256246063888</v>
+        <v>72.69358783955404</v>
       </c>
       <c r="DZ4">
-        <v>4.78092887159457</v>
+        <v>82.42329149691606</v>
       </c>
       <c r="EA4">
-        <v>0.3453820648522887</v>
+        <v>22.97312675519635</v>
       </c>
       <c r="EB4">
-        <v>1.330401683864707</v>
+        <v>94.28785756056644</v>
       </c>
       <c r="EC4">
-        <v>0.3333645334184699</v>
+        <v>63.08920653608833</v>
       </c>
       <c r="ED4">
-        <v>3.333178715717559</v>
+        <v>148.5179367837407</v>
       </c>
       <c r="EE4">
-        <v>1.353972886634497</v>
+        <v>96.45875930445746</v>
       </c>
       <c r="EF4">
-        <v>13.56340047554777</v>
+        <v>191.2563378990737</v>
       </c>
       <c r="EG4">
-        <v>11.33307182723245</v>
+        <v>119.2937302553475</v>
       </c>
       <c r="EH4">
-        <v>0.353330668292111</v>
+        <v>36.81288266217427</v>
       </c>
       <c r="EI4">
-        <v>0.3333472120821401</v>
+        <v>131.4941930275697</v>
       </c>
       <c r="EJ4">
-        <v>3.330871146468777</v>
+        <v>57.60761121325603</v>
       </c>
       <c r="EK4">
-        <v>21.72309063800613</v>
+        <v>71.78920146121663</v>
       </c>
       <c r="EL4">
-        <v>0.3333384063112583</v>
+        <v>104.5256789025741</v>
       </c>
       <c r="EM4">
-        <v>0.3333923873517533</v>
+        <v>140.5242951427048</v>
       </c>
       <c r="EN4">
-        <v>3.387727875276861</v>
+        <v>47.17036582165574</v>
       </c>
       <c r="EO4">
-        <v>0.333379694697605</v>
+        <v>54.26519767312376</v>
       </c>
       <c r="EP4">
-        <v>3.27805286544318</v>
+        <v>46.13878939469573</v>
       </c>
       <c r="EQ4">
-        <v>0.3333950255255284</v>
+        <v>53.3678964192755</v>
       </c>
       <c r="ER4">
-        <v>9.592886304937998</v>
+        <v>106.0606151099465</v>
       </c>
       <c r="ES4">
-        <v>1.332179032708578</v>
+        <v>14.0030947355297</v>
       </c>
       <c r="ET4">
-        <v>0.3847127734755152</v>
+        <v>81.17998045069578</v>
       </c>
       <c r="EU4">
-        <v>1.328151392595332</v>
+        <v>41.11706624164143</v>
       </c>
       <c r="EV4">
-        <v>1.331778146019321</v>
+        <v>134.6041121506527</v>
       </c>
       <c r="EW4">
-        <v>3.801412380736556</v>
+        <v>235.5130924892756</v>
       </c>
       <c r="EX4">
-        <v>0.3333467138157695</v>
+        <v>52.38185285062487</v>
       </c>
       <c r="EY4">
-        <v>0.4248302739094018</v>
+        <v>48.94087107882133</v>
       </c>
       <c r="EZ4">
-        <v>7.148974819125045</v>
+        <v>58.3137429171473</v>
       </c>
       <c r="FA4">
-        <v>0.3333538438095067</v>
+        <v>0.4879776302084768</v>
       </c>
       <c r="FB4">
-        <v>4.334085543345207</v>
+        <v>71.28450130180552</v>
       </c>
       <c r="FC4">
-        <v>12.33632436942344</v>
+        <v>63.18864253153017</v>
       </c>
       <c r="FD4">
-        <v>0.3334336775844969</v>
+        <v>43.98065256023584</v>
       </c>
       <c r="FE4">
-        <v>0.3333901705552064</v>
+        <v>260.3958951066686</v>
       </c>
       <c r="FF4">
-        <v>11.15907402475373</v>
+        <v>62.44183785385354</v>
       </c>
       <c r="FG4">
-        <v>0.3558711900605537</v>
+        <v>82.62106733141212</v>
       </c>
       <c r="FH4">
-        <v>0.3335059240505207</v>
+        <v>119.8408147168453</v>
       </c>
       <c r="FI4">
-        <v>0.3333758291243089</v>
+        <v>47.32637023180479</v>
       </c>
       <c r="FJ4">
-        <v>0.3847127734755152</v>
+        <v>75.42154846508986</v>
       </c>
       <c r="FK4">
-        <v>0.3420378063277428</v>
+        <v>90.23036210261156</v>
       </c>
       <c r="FL4">
-        <v>1.330216698575269</v>
+        <v>74.98017582937869</v>
       </c>
       <c r="FM4">
-        <v>5.319692078114504</v>
+        <v>60.26962130425283</v>
       </c>
       <c r="FN4">
-        <v>0.3333521800173656</v>
+        <v>121.2882471819476</v>
       </c>
       <c r="FO4">
-        <v>1.820172973584874</v>
+        <v>62.71642735794705</v>
       </c>
       <c r="FP4">
-        <v>0.333381838585639</v>
+        <v>21.8618535790894</v>
       </c>
       <c r="FQ4">
-        <v>0.3333800706224698</v>
+        <v>60.09142320971941</v>
       </c>
       <c r="FR4">
-        <v>0.3453820648522887</v>
+        <v>55.14326015312677</v>
       </c>
       <c r="FS4">
-        <v>0.3453820648522887</v>
+        <v>207.6988546240436</v>
       </c>
       <c r="FT4">
-        <v>0.3333471986568684</v>
+        <v>48.46905452432336</v>
       </c>
       <c r="FU4">
-        <v>4.723632765985588</v>
+        <v>89.61517070062231</v>
       </c>
       <c r="FV4">
-        <v>0.36206038162624</v>
+        <v>55.26835729772154</v>
       </c>
       <c r="FW4">
-        <v>20.32167538117226</v>
+        <v>300.8231999509362</v>
       </c>
       <c r="FX4">
-        <v>0.3333584464868015</v>
+        <v>107.7462653381779</v>
       </c>
       <c r="FY4">
-        <v>8.329652729923014</v>
+        <v>79.04971959508126</v>
       </c>
       <c r="FZ4">
-        <v>0.3333758291243089</v>
+        <v>83.85184136225566</v>
       </c>
       <c r="GA4">
-        <v>0.3333472120821401</v>
+        <v>192.7241925936794</v>
       </c>
       <c r="GB4">
-        <v>0.3333927684991318</v>
+        <v>106.278887363729</v>
       </c>
       <c r="GC4">
-        <v>0.3453117226910864</v>
+        <v>39.67364164813061</v>
       </c>
       <c r="GD4">
-        <v>0.3333528626953937</v>
+        <v>46.7005934894339</v>
       </c>
       <c r="GE4">
-        <v>37.08466980738265</v>
+        <v>85.21461943559557</v>
       </c>
       <c r="GF4">
-        <v>124.4303478886786</v>
+        <v>63.60533935321772</v>
       </c>
       <c r="GG4">
-        <v>91.55136345184616</v>
+        <v>51.98773906664418</v>
       </c>
       <c r="GH4">
-        <v>5.326154825057117</v>
+        <v>68.06406776130594</v>
       </c>
       <c r="GI4">
-        <v>0.3333645190208593</v>
+        <v>130.0089119365383</v>
       </c>
       <c r="GJ4">
-        <v>0.3461444394665535</v>
+        <v>0.3381114364578149</v>
       </c>
       <c r="GK4">
-        <v>0.3442763679203854</v>
+        <v>65.73841096231219</v>
       </c>
       <c r="GL4">
-        <v>6.333695677189018</v>
+        <v>135.8313542747163</v>
       </c>
       <c r="GM4">
-        <v>0.3333383061342998</v>
+        <v>55.23055589105469</v>
       </c>
       <c r="GN4">
-        <v>2.332646731378412</v>
+        <v>38.58073707652595</v>
       </c>
       <c r="GO4">
-        <v>0.3475900421322597</v>
+        <v>0.3381114364578149</v>
       </c>
       <c r="GP4">
-        <v>0.3830017236787286</v>
+        <v>0.3381114364578149</v>
       </c>
       <c r="GQ4">
-        <v>0.3604772199139867</v>
+        <v>94.15344496531807</v>
       </c>
       <c r="GR4">
-        <v>0.3533146335353645</v>
+        <v>128.8385137263907</v>
       </c>
       <c r="GS4">
-        <v>17.33320738679451</v>
+        <v>220.4241925247965</v>
+      </c>
+      <c r="GT4">
+        <v>144.766963110437</v>
+      </c>
+      <c r="GU4">
+        <v>87.66905750804972</v>
+      </c>
+      <c r="GV4">
+        <v>13.81318529357403</v>
+      </c>
+      <c r="GW4">
+        <v>41.03904998257317</v>
+      </c>
+      <c r="GX4">
+        <v>112.6833930384926</v>
+      </c>
+      <c r="GY4">
+        <v>42.15410492016662</v>
+      </c>
+      <c r="GZ4">
+        <v>84.76104675534104</v>
+      </c>
+      <c r="HA4">
+        <v>163.5002950534144</v>
+      </c>
+      <c r="HB4">
+        <v>100.7994760734756</v>
+      </c>
+      <c r="HC4">
+        <v>85.7696306847912</v>
+      </c>
+      <c r="HD4">
+        <v>103.2697750573153</v>
+      </c>
+      <c r="HE4">
+        <v>39.58927938092166</v>
+      </c>
+      <c r="HF4">
+        <v>315.4091871454308</v>
+      </c>
+      <c r="HG4">
+        <v>198.7241932379539</v>
+      </c>
+      <c r="HH4">
+        <v>147.8883676966274</v>
+      </c>
+      <c r="HI4">
+        <v>176.3121720446178</v>
+      </c>
+      <c r="HJ4">
+        <v>111.7687240948919</v>
+      </c>
+      <c r="HK4">
+        <v>133.8160459251131</v>
+      </c>
+      <c r="HL4">
+        <v>108.3356650492975</v>
+      </c>
+      <c r="HM4">
+        <v>43.54441106512146</v>
+      </c>
+      <c r="HN4">
+        <v>0.3381114364578149</v>
+      </c>
+      <c r="HO4">
+        <v>104.7436499030922</v>
+      </c>
+      <c r="HP4">
+        <v>91.83946928876514</v>
+      </c>
+      <c r="HQ4">
+        <v>64.19918831740846</v>
+      </c>
+      <c r="HR4">
+        <v>98.39225837884</v>
+      </c>
+      <c r="HS4">
+        <v>130.008524502512</v>
+      </c>
+      <c r="HT4">
+        <v>87.65382362549276</v>
+      </c>
+      <c r="HU4">
+        <v>106.4887968963558</v>
+      </c>
+      <c r="HV4">
+        <v>45.26924224132795</v>
+      </c>
+      <c r="HW4">
+        <v>55.13360903613916</v>
+      </c>
+      <c r="HX4">
+        <v>77.82704664212744</v>
+      </c>
+      <c r="HY4">
+        <v>30.27149363736242</v>
+      </c>
+      <c r="HZ4">
+        <v>27.28562356941174</v>
+      </c>
+      <c r="IA4">
+        <v>119.5235497469232</v>
+      </c>
+      <c r="IB4">
+        <v>176.4071638529044</v>
+      </c>
+      <c r="IC4">
+        <v>75.17158543639043</v>
+      </c>
+      <c r="ID4">
+        <v>77.26943433212389</v>
+      </c>
+      <c r="IE4">
+        <v>81.17377527366071</v>
+      </c>
+      <c r="IF4">
+        <v>0.3381114364578149</v>
+      </c>
+      <c r="IG4">
+        <v>68.17319296628324</v>
+      </c>
+      <c r="IH4">
+        <v>88.34654948587833</v>
+      </c>
+      <c r="II4">
+        <v>158.5864407710762</v>
+      </c>
+      <c r="IJ4">
+        <v>0.3381114364578149</v>
+      </c>
+      <c r="IK4">
+        <v>63.3178154480331</v>
+      </c>
+      <c r="IL4">
+        <v>87.27404473164971</v>
+      </c>
+      <c r="IM4">
+        <v>62.24318077240069</v>
+      </c>
+      <c r="IN4">
+        <v>30.59640053219067</v>
+      </c>
+      <c r="IO4">
+        <v>162.6223802708166</v>
+      </c>
+      <c r="IP4">
+        <v>181.2965530546398</v>
+      </c>
+      <c r="IQ4">
+        <v>12.18902451315038</v>
+      </c>
+      <c r="IR4">
+        <v>110.8048006333203</v>
+      </c>
+      <c r="IS4">
+        <v>41.31859117899672</v>
+      </c>
+      <c r="IT4">
+        <v>57.12973418648029</v>
+      </c>
+      <c r="IU4">
+        <v>112.1966393753311</v>
+      </c>
+      <c r="IV4">
+        <v>0.3381114364578149</v>
+      </c>
+      <c r="IW4">
+        <v>56.31238795700225</v>
+      </c>
+      <c r="IX4">
+        <v>0.3381114364578149</v>
+      </c>
+      <c r="IY4">
+        <v>24.21146185570489</v>
+      </c>
+      <c r="IZ4">
+        <v>40.27591020090836</v>
+      </c>
+      <c r="JA4">
+        <v>192.601585641065</v>
+      </c>
+      <c r="JB4">
+        <v>40.17126597354265</v>
+      </c>
+      <c r="JC4">
+        <v>17.42373450962991</v>
+      </c>
+      <c r="JD4">
+        <v>68.92293825273266</v>
+      </c>
+      <c r="JE4">
+        <v>238.4074033242846</v>
+      </c>
+      <c r="JF4">
+        <v>41.31735508108822</v>
+      </c>
+      <c r="JG4">
+        <v>156.90899967839</v>
+      </c>
+      <c r="JH4">
+        <v>122.041944137408</v>
+      </c>
+      <c r="JI4">
+        <v>137.5065828053489</v>
+      </c>
+      <c r="JJ4">
+        <v>66.63684398882411</v>
+      </c>
+      <c r="JK4">
+        <v>129.2715406484304</v>
+      </c>
+      <c r="JL4">
+        <v>37.32463048290212</v>
+      </c>
+      <c r="JM4">
+        <v>0.3652227917620326</v>
+      </c>
+      <c r="JN4">
+        <v>0.3381114364578149</v>
+      </c>
+      <c r="JO4">
+        <v>62.10484889097408</v>
+      </c>
+      <c r="JP4">
+        <v>141.2085040254341</v>
+      </c>
+      <c r="JQ4">
+        <v>37.77434068486698</v>
+      </c>
+      <c r="JR4">
+        <v>67.67240860551482</v>
+      </c>
+      <c r="JS4">
+        <v>165.8351988498818</v>
+      </c>
+      <c r="JT4">
+        <v>194.6354887346178</v>
+      </c>
+      <c r="JU4">
+        <v>108.5614926814413</v>
+      </c>
+      <c r="JV4">
+        <v>61.27776631796312</v>
+      </c>
+      <c r="JW4">
+        <v>78.38669411809175</v>
+      </c>
+      <c r="JX4">
+        <v>105.8931839796373</v>
+      </c>
+      <c r="JY4">
+        <v>163.5634064811323</v>
+      </c>
+      <c r="JZ4">
+        <v>78.49026268308255</v>
+      </c>
+      <c r="KA4">
+        <v>232.2728194814742</v>
+      </c>
+      <c r="KB4">
+        <v>125.2380501539505</v>
+      </c>
+      <c r="KC4">
+        <v>105.1387845087117</v>
+      </c>
+      <c r="KD4">
+        <v>140.7469659141212</v>
+      </c>
+      <c r="KE4">
+        <v>126.8513840084156</v>
+      </c>
+      <c r="KF4">
+        <v>286.2021752413337</v>
+      </c>
+      <c r="KG4">
+        <v>69.26930562177954</v>
+      </c>
+      <c r="KH4">
+        <v>48.9215779750918</v>
+      </c>
+      <c r="KI4">
+        <v>100.3002379350545</v>
+      </c>
+      <c r="KJ4">
+        <v>29.99181048313051</v>
+      </c>
+      <c r="KK4">
+        <v>171.7851502930407</v>
+      </c>
+      <c r="KL4">
+        <v>77.31448223523918</v>
+      </c>
+      <c r="KM4">
+        <v>25.28863810678387</v>
+      </c>
+      <c r="KN4">
+        <v>0.3381114364578149</v>
+      </c>
+      <c r="KO4">
+        <v>46.25130085296726</v>
+      </c>
+      <c r="KP4">
+        <v>90.73638268042045</v>
+      </c>
+      <c r="KQ4">
+        <v>49.88842187724252</v>
+      </c>
+      <c r="KR4">
+        <v>67.8966950034288</v>
+      </c>
+      <c r="KS4">
+        <v>56.16652428829073</v>
+      </c>
+      <c r="KT4">
+        <v>183.8478627421487</v>
+      </c>
+      <c r="KU4">
+        <v>143.0877207872291</v>
+      </c>
+      <c r="KV4">
+        <v>131.2650935658385</v>
+      </c>
+      <c r="KW4">
+        <v>191.6466410257984</v>
+      </c>
+      <c r="KX4">
+        <v>248.9170550467565</v>
+      </c>
+      <c r="KY4">
+        <v>100.923735721166</v>
+      </c>
+      <c r="KZ4">
+        <v>37.4706649443203</v>
+      </c>
+      <c r="LA4">
+        <v>131.6638472661568</v>
+      </c>
+      <c r="LB4">
+        <v>65.14473014061846</v>
+      </c>
+      <c r="LC4">
+        <v>83.44067392000476</v>
+      </c>
+      <c r="LD4">
+        <v>78.27086530669227</v>
+      </c>
+      <c r="LE4">
+        <v>68.00857448769199</v>
+      </c>
+      <c r="LF4">
+        <v>141.2285344396264</v>
+      </c>
+      <c r="LG4">
+        <v>115.4146864530893</v>
+      </c>
+      <c r="LH4">
+        <v>67.5779694160791</v>
+      </c>
+      <c r="LI4">
+        <v>83.45946856003403</v>
+      </c>
+      <c r="LJ4">
+        <v>147.9915562784535</v>
+      </c>
+      <c r="LK4">
+        <v>164.5839125012747</v>
+      </c>
+      <c r="LL4">
+        <v>108.794281559172</v>
+      </c>
+      <c r="LM4">
+        <v>41.3187877567718</v>
+      </c>
+      <c r="LN4">
+        <v>33.26213408806071</v>
+      </c>
+      <c r="LO4">
+        <v>64.40067347235765</v>
+      </c>
+      <c r="LP4">
+        <v>60.05570179629012</v>
+      </c>
+      <c r="LQ4">
+        <v>165.5915869239091</v>
+      </c>
+      <c r="LR4">
+        <v>52.74181692896499</v>
+      </c>
+      <c r="LS4">
+        <v>66.97520612939991</v>
+      </c>
+      <c r="LT4">
+        <v>99.90091375293464</v>
+      </c>
+      <c r="LU4">
+        <v>244.114172051843</v>
+      </c>
+      <c r="LV4">
+        <v>0.3381114364578149</v>
+      </c>
+      <c r="LW4">
+        <v>75.06380064572457</v>
+      </c>
+      <c r="LX4">
+        <v>26.44740847076624</v>
+      </c>
+      <c r="LY4">
+        <v>47.30752594742988</v>
+      </c>
+      <c r="LZ4">
+        <v>104.5017137568399</v>
+      </c>
+      <c r="MA4">
+        <v>37.28333940837231</v>
+      </c>
+      <c r="MB4">
+        <v>80.87208062762357</v>
+      </c>
+      <c r="MC4">
+        <v>50.6832627197762</v>
+      </c>
+      <c r="MD4">
+        <v>138.7134438018544</v>
+      </c>
+      <c r="ME4">
+        <v>51.48465346192047</v>
+      </c>
+      <c r="MF4">
+        <v>21.3187292191977</v>
+      </c>
+      <c r="MG4">
+        <v>41.31120829302117</v>
+      </c>
+      <c r="MH4">
+        <v>36.77050810751421</v>
+      </c>
+      <c r="MI4">
+        <v>76.70315106664</v>
+      </c>
+      <c r="MJ4">
+        <v>156.2436416628748</v>
+      </c>
+      <c r="MK4">
+        <v>58.15648485782428</v>
+      </c>
+      <c r="ML4">
+        <v>140.2932886258349</v>
+      </c>
+      <c r="MM4">
+        <v>58.15268059356934</v>
+      </c>
+      <c r="MN4">
+        <v>79.88561309607088</v>
+      </c>
+      <c r="MO4">
+        <v>207.7362246584415</v>
+      </c>
+      <c r="MP4">
+        <v>154.9016734304275</v>
+      </c>
+      <c r="MQ4">
+        <v>57.45671070319891</v>
+      </c>
+      <c r="MR4">
+        <v>37.54996858090398</v>
+      </c>
+      <c r="MS4">
+        <v>90.03341363115312</v>
+      </c>
+      <c r="MT4">
+        <v>24.784184559621</v>
+      </c>
+      <c r="MU4">
+        <v>73.26980660087969</v>
+      </c>
+      <c r="MV4">
+        <v>133.2598804209784</v>
+      </c>
+      <c r="MW4">
+        <v>273.5166783525105</v>
+      </c>
+      <c r="MX4">
+        <v>137.2366437850207</v>
+      </c>
+      <c r="MY4">
+        <v>114.6715632882614</v>
+      </c>
+      <c r="MZ4">
+        <v>82.72701474069717</v>
+      </c>
+      <c r="NA4">
+        <v>133.6726022331004</v>
+      </c>
+      <c r="NB4">
+        <v>50.66200461008771</v>
+      </c>
+      <c r="NC4">
+        <v>0.3381114364578149</v>
+      </c>
+      <c r="ND4">
+        <v>0.3381114364578149</v>
+      </c>
+      <c r="NE4">
+        <v>45.79044567105945</v>
+      </c>
+      <c r="NF4">
+        <v>55.91372748420432</v>
+      </c>
+      <c r="NG4">
+        <v>127.2503475066979</v>
+      </c>
+      <c r="NH4">
+        <v>188.2871422694086</v>
+      </c>
+      <c r="NI4">
+        <v>0.3381114364578149</v>
+      </c>
+      <c r="NJ4">
+        <v>224.5362840921783</v>
+      </c>
+      <c r="NK4">
+        <v>83.81270331473621</v>
+      </c>
+      <c r="NL4">
+        <v>74.44537334335905</v>
+      </c>
+      <c r="NM4">
+        <v>27.97759262093987</v>
+      </c>
+      <c r="NN4">
+        <v>95.7398194073582</v>
+      </c>
+      <c r="NO4">
+        <v>0.3380896930377891</v>
+      </c>
+      <c r="NP4">
+        <v>82.22089663133308</v>
+      </c>
+      <c r="NQ4">
+        <v>57.21263623841421</v>
+      </c>
+      <c r="NR4">
+        <v>38.58086407620348</v>
+      </c>
+      <c r="NS4">
+        <v>47.32639700696834</v>
+      </c>
+      <c r="NT4">
+        <v>87.31731687795029</v>
+      </c>
+      <c r="NU4">
+        <v>0.3381114364578149</v>
+      </c>
+      <c r="NV4">
+        <v>116.3669607827748</v>
+      </c>
+      <c r="NW4">
+        <v>0.3381114364578149</v>
+      </c>
+      <c r="NX4">
+        <v>131.4454076041518</v>
+      </c>
+      <c r="NY4">
+        <v>179.1498254685847</v>
+      </c>
+      <c r="NZ4">
+        <v>65.25608885251397</v>
+      </c>
+      <c r="OA4">
+        <v>116.1837728233471</v>
+      </c>
+      <c r="OB4">
+        <v>61.38938805873826</v>
+      </c>
+      <c r="OC4">
+        <v>50.50052063011231</v>
+      </c>
+      <c r="OD4">
+        <v>25.63446378800842</v>
+      </c>
+      <c r="OE4">
+        <v>0.3655641724999977</v>
+      </c>
+      <c r="OF4">
+        <v>54.32023363023954</v>
+      </c>
+      <c r="OG4">
+        <v>54.99247735909243</v>
+      </c>
+      <c r="OH4">
+        <v>20.70341408902434</v>
+      </c>
+      <c r="OI4">
+        <v>212.3075046251161</v>
+      </c>
+      <c r="OJ4">
+        <v>55.99585609795528</v>
+      </c>
+      <c r="OK4">
+        <v>99.97602225697854</v>
       </c>
     </row>
   </sheetData>
